--- a/input/emissions-inventories/Canada/ape_results_e_NOx_2014.xlsx
+++ b/input/emissions-inventories/Canada/ape_results_e_NOx_2014.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huong Nguyen\Desktop\CEDS\input\emissions-inventories\Canada\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danny\Desktop\CREA Github\CEDS\input\emissions-inventories\Canada\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1D142E-BC74-4C90-9E2A-4AB9F461DA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="19935" yWindow="-180" windowWidth="14145" windowHeight="10710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -294,7 +295,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -890,19 +891,19 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1223,10 +1224,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1235,18 +1238,18 @@
     <col min="3" max="26" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:32" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1254,7 +1257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1262,7 +1265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1270,1543 +1273,1849 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="16"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="4">
+        <v>2020</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2019</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2018</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2017</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2016</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2015</v>
+      </c>
+      <c r="H8" s="4">
         <v>2014</v>
       </c>
-      <c r="C8" s="4">
+      <c r="I8" s="4">
         <v>2013</v>
       </c>
-      <c r="D8" s="4">
+      <c r="J8" s="4">
         <v>2012</v>
       </c>
-      <c r="E8" s="4">
+      <c r="K8" s="4">
         <v>2011</v>
       </c>
-      <c r="F8" s="4">
+      <c r="L8" s="4">
         <v>2010</v>
       </c>
-      <c r="G8" s="4">
+      <c r="M8" s="4">
         <v>2009</v>
       </c>
-      <c r="H8" s="4">
+      <c r="N8" s="4">
         <v>2008</v>
       </c>
-      <c r="I8" s="4">
+      <c r="O8" s="4">
         <v>2007</v>
       </c>
-      <c r="J8" s="4">
+      <c r="P8" s="4">
         <v>2006</v>
       </c>
-      <c r="K8" s="4">
+      <c r="Q8" s="4">
         <v>2005</v>
       </c>
-      <c r="L8" s="4">
+      <c r="R8" s="4">
         <v>2004</v>
       </c>
-      <c r="M8" s="4">
+      <c r="S8" s="4">
         <v>2003</v>
       </c>
-      <c r="N8" s="4">
+      <c r="T8" s="4">
         <v>2002</v>
       </c>
-      <c r="O8" s="4">
+      <c r="U8" s="4">
         <v>2001</v>
       </c>
-      <c r="P8" s="4">
+      <c r="V8" s="4">
         <v>2000</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="W8" s="4">
         <v>1999</v>
       </c>
-      <c r="R8" s="4">
+      <c r="X8" s="4">
         <v>1998</v>
       </c>
-      <c r="S8" s="4">
+      <c r="Y8" s="4">
         <v>1997</v>
       </c>
-      <c r="T8" s="4">
+      <c r="Z8" s="4">
         <v>1996</v>
       </c>
-      <c r="U8" s="4">
+      <c r="AA8" s="4">
         <v>1995</v>
       </c>
-      <c r="V8" s="4">
+      <c r="AB8" s="4">
         <v>1994</v>
       </c>
-      <c r="W8" s="4">
+      <c r="AC8" s="4">
         <v>1993</v>
       </c>
-      <c r="X8" s="4">
+      <c r="AD8" s="4">
         <v>1992</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="AE8" s="4">
         <v>1991</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="AF8" s="4">
         <v>1990</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="14"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="15"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="16"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
+        <v>1125</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1136</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1193</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1233</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1227</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1142</v>
+      </c>
+      <c r="H10" s="6">
         <v>1203</v>
       </c>
-      <c r="C10" s="6">
+      <c r="I10" s="6">
         <v>1305</v>
       </c>
-      <c r="D10" s="6">
+      <c r="J10" s="6">
         <v>1353</v>
       </c>
-      <c r="E10" s="6">
+      <c r="K10" s="6">
         <v>1093</v>
       </c>
-      <c r="F10" s="6">
+      <c r="L10" s="6">
         <v>1098</v>
       </c>
-      <c r="G10" s="6">
+      <c r="M10" s="6">
         <v>1260</v>
       </c>
-      <c r="H10" s="6">
+      <c r="N10" s="6">
         <v>1713</v>
       </c>
-      <c r="I10" s="6">
+      <c r="O10" s="6">
         <v>1790</v>
       </c>
-      <c r="J10" s="6">
+      <c r="P10" s="6">
         <v>1610</v>
       </c>
-      <c r="K10" s="6">
+      <c r="Q10" s="6">
         <v>2024</v>
       </c>
-      <c r="L10" s="6">
+      <c r="R10" s="6">
         <v>1985</v>
       </c>
-      <c r="M10" s="6">
+      <c r="S10" s="6">
         <v>1916</v>
       </c>
-      <c r="N10" s="6">
+      <c r="T10" s="6">
         <v>1449</v>
       </c>
-      <c r="O10" s="6">
+      <c r="U10" s="6">
         <v>1550</v>
       </c>
-      <c r="P10" s="6">
+      <c r="V10" s="6">
         <v>1350</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="W10" s="6">
         <v>1435</v>
       </c>
-      <c r="R10" s="6">
+      <c r="X10" s="6">
         <v>1547</v>
       </c>
-      <c r="S10" s="6">
+      <c r="Y10" s="6">
         <v>1649</v>
       </c>
-      <c r="T10" s="6">
+      <c r="Z10" s="6">
         <v>1487</v>
       </c>
-      <c r="U10" s="6">
+      <c r="AA10" s="6">
         <v>1350</v>
       </c>
-      <c r="V10" s="6">
+      <c r="AB10" s="6">
         <v>1740</v>
       </c>
-      <c r="W10" s="6">
+      <c r="AC10" s="6">
         <v>1641</v>
       </c>
-      <c r="X10" s="6">
+      <c r="AD10" s="6">
         <v>1556</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="AE10" s="6">
         <v>1613</v>
       </c>
-      <c r="Z10" s="6">
+      <c r="AF10" s="6">
         <v>1574</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
+        <v>885</v>
+      </c>
+      <c r="C11" s="5">
+        <v>932</v>
+      </c>
+      <c r="D11" s="5">
+        <v>976</v>
+      </c>
+      <c r="E11" s="5">
+        <v>964</v>
+      </c>
+      <c r="F11" s="5">
+        <v>887</v>
+      </c>
+      <c r="G11" s="5">
+        <v>930</v>
+      </c>
+      <c r="H11" s="6">
         <v>965</v>
       </c>
-      <c r="C11" s="6">
+      <c r="I11" s="6">
         <v>965</v>
       </c>
-      <c r="D11" s="6">
+      <c r="J11" s="6">
         <v>1080</v>
       </c>
-      <c r="E11" s="6">
+      <c r="K11" s="6">
         <v>1326</v>
       </c>
-      <c r="F11" s="6">
+      <c r="L11" s="6">
         <v>1497</v>
       </c>
-      <c r="G11" s="6">
+      <c r="M11" s="6">
         <v>1213</v>
       </c>
-      <c r="H11" s="6">
+      <c r="N11" s="6">
         <v>1142</v>
       </c>
-      <c r="I11" s="6">
+      <c r="O11" s="6">
         <v>1167</v>
       </c>
-      <c r="J11" s="6">
+      <c r="P11" s="6">
         <v>1196</v>
       </c>
-      <c r="K11" s="6">
+      <c r="Q11" s="6">
         <v>1182</v>
       </c>
-      <c r="L11" s="6">
+      <c r="R11" s="6">
         <v>1213</v>
       </c>
-      <c r="M11" s="6">
+      <c r="S11" s="6">
         <v>1158</v>
       </c>
-      <c r="N11" s="6">
+      <c r="T11" s="6">
         <v>1188</v>
       </c>
-      <c r="O11" s="6">
+      <c r="U11" s="6">
         <v>1183</v>
       </c>
-      <c r="P11" s="6">
+      <c r="V11" s="6">
         <v>1115</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="W11" s="6">
         <v>1382</v>
       </c>
-      <c r="R11" s="6">
+      <c r="X11" s="6">
         <v>1446</v>
       </c>
-      <c r="S11" s="6">
+      <c r="Y11" s="6">
         <v>1543</v>
       </c>
-      <c r="T11" s="6">
+      <c r="Z11" s="6">
         <v>1416</v>
       </c>
-      <c r="U11" s="6">
+      <c r="AA11" s="6">
         <v>1501</v>
       </c>
-      <c r="V11" s="6">
+      <c r="AB11" s="6">
         <v>1438</v>
       </c>
-      <c r="W11" s="6">
+      <c r="AC11" s="6">
         <v>1248</v>
       </c>
-      <c r="X11" s="6">
+      <c r="AD11" s="6">
         <v>1176</v>
       </c>
-      <c r="Y11" s="6">
+      <c r="AE11" s="6">
         <v>1100</v>
       </c>
-      <c r="Z11" s="6">
+      <c r="AF11" s="6">
         <v>1202</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
+        <v>27248</v>
+      </c>
+      <c r="C12" s="5">
+        <v>31345</v>
+      </c>
+      <c r="D12" s="5">
+        <v>35230</v>
+      </c>
+      <c r="E12" s="5">
+        <v>33871</v>
+      </c>
+      <c r="F12" s="5">
+        <v>32125</v>
+      </c>
+      <c r="G12" s="5">
+        <v>35036</v>
+      </c>
+      <c r="H12" s="6">
         <v>31159</v>
       </c>
-      <c r="C12" s="6">
+      <c r="I12" s="6">
         <v>30561</v>
       </c>
-      <c r="D12" s="6">
+      <c r="J12" s="6">
         <v>35445</v>
       </c>
-      <c r="E12" s="6">
+      <c r="K12" s="6">
         <v>32296</v>
       </c>
-      <c r="F12" s="6">
+      <c r="L12" s="6">
         <v>33314</v>
       </c>
-      <c r="G12" s="6">
+      <c r="M12" s="6">
         <v>31313</v>
       </c>
-      <c r="H12" s="6">
+      <c r="N12" s="6">
         <v>38011</v>
       </c>
-      <c r="I12" s="6">
+      <c r="O12" s="6">
         <v>42307</v>
       </c>
-      <c r="J12" s="6">
+      <c r="P12" s="6">
         <v>40393</v>
       </c>
-      <c r="K12" s="6">
+      <c r="Q12" s="6">
         <v>54233</v>
       </c>
-      <c r="L12" s="6">
+      <c r="R12" s="6">
         <v>52400</v>
       </c>
-      <c r="M12" s="6">
+      <c r="S12" s="6">
         <v>48766</v>
       </c>
-      <c r="N12" s="6">
+      <c r="T12" s="6">
         <v>47221</v>
       </c>
-      <c r="O12" s="6">
+      <c r="U12" s="6">
         <v>42927</v>
       </c>
-      <c r="P12" s="6">
+      <c r="V12" s="6">
         <v>44947</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="W12" s="6">
         <v>45072</v>
       </c>
-      <c r="R12" s="6">
+      <c r="X12" s="6">
         <v>45857</v>
       </c>
-      <c r="S12" s="6">
+      <c r="Y12" s="6">
         <v>46394</v>
       </c>
-      <c r="T12" s="6">
+      <c r="Z12" s="6">
         <v>47125</v>
       </c>
-      <c r="U12" s="6">
+      <c r="AA12" s="6">
         <v>48258</v>
       </c>
-      <c r="V12" s="6">
+      <c r="AB12" s="6">
         <v>46603</v>
       </c>
-      <c r="W12" s="6">
+      <c r="AC12" s="6">
         <v>41859</v>
       </c>
-      <c r="X12" s="6">
+      <c r="AD12" s="6">
         <v>37138</v>
       </c>
-      <c r="Y12" s="6">
+      <c r="AE12" s="6">
         <v>37856</v>
       </c>
-      <c r="Z12" s="6">
+      <c r="AF12" s="6">
         <v>42444</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
+        <v>23993</v>
+      </c>
+      <c r="C13" s="5">
+        <v>23813</v>
+      </c>
+      <c r="D13" s="5">
+        <v>24787</v>
+      </c>
+      <c r="E13" s="5">
+        <v>23328</v>
+      </c>
+      <c r="F13" s="5">
+        <v>22735</v>
+      </c>
+      <c r="G13" s="5">
+        <v>23067</v>
+      </c>
+      <c r="H13" s="6">
         <v>21275</v>
       </c>
-      <c r="C13" s="6">
+      <c r="I13" s="6">
         <v>22179</v>
       </c>
-      <c r="D13" s="6">
+      <c r="J13" s="6">
         <v>23699</v>
       </c>
-      <c r="E13" s="6">
+      <c r="K13" s="6">
         <v>23242</v>
       </c>
-      <c r="F13" s="6">
+      <c r="L13" s="6">
         <v>23463</v>
       </c>
-      <c r="G13" s="6">
+      <c r="M13" s="6">
         <v>23165</v>
       </c>
-      <c r="H13" s="6">
+      <c r="N13" s="6">
         <v>24073</v>
       </c>
-      <c r="I13" s="6">
+      <c r="O13" s="6">
         <v>26500</v>
       </c>
-      <c r="J13" s="6">
+      <c r="P13" s="6">
         <v>28613</v>
       </c>
-      <c r="K13" s="6">
+      <c r="Q13" s="6">
         <v>36208</v>
       </c>
-      <c r="L13" s="6">
+      <c r="R13" s="6">
         <v>38298</v>
       </c>
-      <c r="M13" s="6">
+      <c r="S13" s="6">
         <v>38547</v>
       </c>
-      <c r="N13" s="6">
+      <c r="T13" s="6">
         <v>39482</v>
       </c>
-      <c r="O13" s="6">
+      <c r="U13" s="6">
         <v>42555</v>
       </c>
-      <c r="P13" s="6">
+      <c r="V13" s="6">
         <v>46982</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="W13" s="6">
         <v>44259</v>
       </c>
-      <c r="R13" s="6">
+      <c r="X13" s="6">
         <v>42307</v>
       </c>
-      <c r="S13" s="6">
+      <c r="Y13" s="6">
         <v>40365</v>
       </c>
-      <c r="T13" s="6">
+      <c r="Z13" s="6">
         <v>39607</v>
       </c>
-      <c r="U13" s="6">
+      <c r="AA13" s="6">
         <v>39545</v>
       </c>
-      <c r="V13" s="6">
+      <c r="AB13" s="6">
         <v>39366</v>
       </c>
-      <c r="W13" s="6">
+      <c r="AC13" s="6">
         <v>39949</v>
       </c>
-      <c r="X13" s="6">
+      <c r="AD13" s="6">
         <v>43047</v>
       </c>
-      <c r="Y13" s="6">
+      <c r="AE13" s="6">
         <v>40302</v>
       </c>
-      <c r="Z13" s="6">
+      <c r="AF13" s="6">
         <v>41487</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
+        <v>218</v>
+      </c>
+      <c r="C14" s="5">
+        <v>207</v>
+      </c>
+      <c r="D14" s="5">
+        <v>236</v>
+      </c>
+      <c r="E14" s="5">
+        <v>288</v>
+      </c>
+      <c r="F14" s="5">
+        <v>297</v>
+      </c>
+      <c r="G14" s="5">
+        <v>294</v>
+      </c>
+      <c r="H14" s="6">
         <v>575</v>
       </c>
-      <c r="C14" s="6">
+      <c r="I14" s="6">
         <v>516</v>
       </c>
-      <c r="D14" s="6">
+      <c r="J14" s="6">
         <v>454</v>
       </c>
-      <c r="E14" s="6">
+      <c r="K14" s="6">
         <v>375</v>
       </c>
-      <c r="F14" s="6">
+      <c r="L14" s="6">
         <v>399</v>
       </c>
-      <c r="G14" s="6">
+      <c r="M14" s="6">
         <v>457</v>
       </c>
-      <c r="H14" s="6">
+      <c r="N14" s="6">
         <v>422</v>
       </c>
-      <c r="I14" s="6">
+      <c r="O14" s="6">
         <v>534</v>
       </c>
-      <c r="J14" s="6">
+      <c r="P14" s="6">
         <v>794</v>
       </c>
-      <c r="K14" s="6">
+      <c r="Q14" s="6">
         <v>1065</v>
       </c>
-      <c r="L14" s="6">
+      <c r="R14" s="6">
         <v>1044</v>
       </c>
-      <c r="M14" s="6">
+      <c r="S14" s="6">
         <v>1028</v>
       </c>
-      <c r="N14" s="6">
+      <c r="T14" s="6">
         <v>1311</v>
       </c>
-      <c r="O14" s="6">
+      <c r="U14" s="6">
         <v>861</v>
       </c>
-      <c r="P14" s="6">
+      <c r="V14" s="6">
         <v>776</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="W14" s="6">
         <v>794</v>
       </c>
-      <c r="R14" s="6">
+      <c r="X14" s="6">
         <v>886</v>
       </c>
-      <c r="S14" s="6">
+      <c r="Y14" s="6">
         <v>947</v>
       </c>
-      <c r="T14" s="6">
+      <c r="Z14" s="6">
         <v>1005</v>
       </c>
-      <c r="U14" s="6">
+      <c r="AA14" s="6">
         <v>1059</v>
       </c>
-      <c r="V14" s="6">
+      <c r="AB14" s="6">
         <v>1022</v>
       </c>
-      <c r="W14" s="6">
+      <c r="AC14" s="6">
         <v>1030</v>
       </c>
-      <c r="X14" s="6">
+      <c r="AD14" s="6">
         <v>1047</v>
       </c>
-      <c r="Y14" s="6">
+      <c r="AE14" s="6">
         <v>1132</v>
       </c>
-      <c r="Z14" s="6">
+      <c r="AF14" s="6">
         <v>1519</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
+        <v>42</v>
+      </c>
+      <c r="C15" s="5">
+        <v>42</v>
+      </c>
+      <c r="D15" s="5">
+        <v>43</v>
+      </c>
+      <c r="E15" s="5">
+        <v>43</v>
+      </c>
+      <c r="F15" s="5">
+        <v>42</v>
+      </c>
+      <c r="G15" s="5">
+        <v>43</v>
+      </c>
+      <c r="H15" s="6">
         <v>144</v>
       </c>
-      <c r="C15" s="6">
+      <c r="I15" s="6">
         <v>144</v>
       </c>
-      <c r="D15" s="6">
+      <c r="J15" s="6">
         <v>144</v>
       </c>
-      <c r="E15" s="6">
+      <c r="K15" s="6">
         <v>144</v>
       </c>
-      <c r="F15" s="6">
+      <c r="L15" s="6">
         <v>147</v>
       </c>
-      <c r="G15" s="6">
+      <c r="M15" s="6">
         <v>151</v>
       </c>
-      <c r="H15" s="6">
+      <c r="N15" s="6">
         <v>155</v>
       </c>
-      <c r="I15" s="6">
+      <c r="O15" s="6">
         <v>143</v>
       </c>
-      <c r="J15" s="6">
+      <c r="P15" s="6">
         <v>142</v>
       </c>
-      <c r="K15" s="6">
+      <c r="Q15" s="6">
         <v>526</v>
       </c>
-      <c r="L15" s="6">
+      <c r="R15" s="6">
         <v>523</v>
       </c>
-      <c r="M15" s="6">
+      <c r="S15" s="6">
         <v>549</v>
       </c>
-      <c r="N15" s="6">
+      <c r="T15" s="6">
         <v>564</v>
       </c>
-      <c r="O15" s="6">
+      <c r="U15" s="6">
         <v>577</v>
       </c>
-      <c r="P15" s="6">
+      <c r="V15" s="6">
         <v>640</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="W15" s="6">
         <v>764</v>
       </c>
-      <c r="R15" s="6">
+      <c r="X15" s="6">
         <v>654</v>
       </c>
-      <c r="S15" s="6">
+      <c r="Y15" s="6">
         <v>567</v>
       </c>
-      <c r="T15" s="6">
+      <c r="Z15" s="6">
         <v>533</v>
       </c>
-      <c r="U15" s="6">
+      <c r="AA15" s="6">
         <v>587</v>
       </c>
-      <c r="V15" s="6">
+      <c r="AB15" s="6">
         <v>600</v>
       </c>
-      <c r="W15" s="6">
+      <c r="AC15" s="6">
         <v>516</v>
       </c>
-      <c r="X15" s="6">
+      <c r="AD15" s="6">
         <v>480</v>
       </c>
-      <c r="Y15" s="6">
+      <c r="AE15" s="6">
         <v>466</v>
       </c>
-      <c r="Z15" s="6">
+      <c r="AF15" s="6">
         <v>493</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
+        <v>433</v>
+      </c>
+      <c r="C16" s="5">
+        <v>929</v>
+      </c>
+      <c r="D16" s="5">
+        <v>824</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1100</v>
+      </c>
+      <c r="F16" s="5">
+        <v>759</v>
+      </c>
+      <c r="G16" s="5">
+        <v>779</v>
+      </c>
+      <c r="H16" s="6">
         <v>1010</v>
       </c>
-      <c r="C16" s="6">
+      <c r="I16" s="6">
         <v>954</v>
       </c>
-      <c r="D16" s="6">
+      <c r="J16" s="6">
         <v>980</v>
       </c>
-      <c r="E16" s="6">
+      <c r="K16" s="6">
         <v>875</v>
       </c>
-      <c r="F16" s="6">
+      <c r="L16" s="6">
         <v>868</v>
       </c>
-      <c r="G16" s="6">
+      <c r="M16" s="6">
         <v>1006</v>
       </c>
-      <c r="H16" s="6">
+      <c r="N16" s="6">
         <v>1151</v>
       </c>
-      <c r="I16" s="6">
+      <c r="O16" s="6">
         <v>1127</v>
       </c>
-      <c r="J16" s="6">
+      <c r="P16" s="6">
         <v>1075</v>
       </c>
-      <c r="K16" s="6">
+      <c r="Q16" s="6">
         <v>1632</v>
       </c>
-      <c r="L16" s="6">
+      <c r="R16" s="6">
         <v>1611</v>
       </c>
-      <c r="M16" s="6">
+      <c r="S16" s="6">
         <v>1630</v>
       </c>
-      <c r="N16" s="6">
+      <c r="T16" s="6">
         <v>1705</v>
       </c>
-      <c r="O16" s="6">
+      <c r="U16" s="6">
         <v>1476</v>
       </c>
-      <c r="P16" s="6">
+      <c r="V16" s="6">
         <v>1299</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="W16" s="6">
         <v>1347</v>
       </c>
-      <c r="R16" s="6">
+      <c r="X16" s="6">
         <v>1347</v>
       </c>
-      <c r="S16" s="6">
+      <c r="Y16" s="6">
         <v>1341</v>
       </c>
-      <c r="T16" s="6">
+      <c r="Z16" s="6">
         <v>1343</v>
       </c>
-      <c r="U16" s="6">
+      <c r="AA16" s="6">
         <v>1347</v>
       </c>
-      <c r="V16" s="6">
+      <c r="AB16" s="6">
         <v>1579</v>
       </c>
-      <c r="W16" s="6">
+      <c r="AC16" s="6">
         <v>1552</v>
       </c>
-      <c r="X16" s="6">
+      <c r="AD16" s="6">
         <v>1533</v>
       </c>
-      <c r="Y16" s="6">
+      <c r="AE16" s="6">
         <v>1542</v>
       </c>
-      <c r="Z16" s="6">
+      <c r="AF16" s="6">
         <v>1396</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
+        <v>8435</v>
+      </c>
+      <c r="C17" s="5">
+        <v>10368</v>
+      </c>
+      <c r="D17" s="5">
+        <v>10718</v>
+      </c>
+      <c r="E17" s="5">
+        <v>10592</v>
+      </c>
+      <c r="F17" s="5">
+        <v>10651</v>
+      </c>
+      <c r="G17" s="5">
+        <v>10886</v>
+      </c>
+      <c r="H17" s="6">
         <v>11556</v>
       </c>
-      <c r="C17" s="6">
+      <c r="I17" s="6">
         <v>11017</v>
       </c>
-      <c r="D17" s="6">
+      <c r="J17" s="6">
         <v>12215</v>
       </c>
-      <c r="E17" s="6">
+      <c r="K17" s="6">
         <v>11620</v>
       </c>
-      <c r="F17" s="6">
+      <c r="L17" s="6">
         <v>10571</v>
       </c>
-      <c r="G17" s="6">
+      <c r="M17" s="6">
         <v>8629</v>
       </c>
-      <c r="H17" s="6">
+      <c r="N17" s="6">
         <v>12736</v>
       </c>
-      <c r="I17" s="6">
+      <c r="O17" s="6">
         <v>13052</v>
       </c>
-      <c r="J17" s="6">
+      <c r="P17" s="6">
         <v>13143</v>
       </c>
-      <c r="K17" s="6">
+      <c r="Q17" s="6">
         <v>13381</v>
       </c>
-      <c r="L17" s="6">
+      <c r="R17" s="6">
         <v>14064</v>
       </c>
-      <c r="M17" s="6">
+      <c r="S17" s="6">
         <v>14040</v>
       </c>
-      <c r="N17" s="6">
+      <c r="T17" s="6">
         <v>14284</v>
       </c>
-      <c r="O17" s="6">
+      <c r="U17" s="6">
         <v>14236</v>
       </c>
-      <c r="P17" s="6">
+      <c r="V17" s="6">
         <v>16078</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="W17" s="6">
         <v>17738</v>
       </c>
-      <c r="R17" s="6">
+      <c r="X17" s="6">
         <v>17581</v>
       </c>
-      <c r="S17" s="6">
+      <c r="Y17" s="6">
         <v>19760</v>
       </c>
-      <c r="T17" s="6">
+      <c r="Z17" s="6">
         <v>18973</v>
       </c>
-      <c r="U17" s="6">
+      <c r="AA17" s="6">
         <v>18228</v>
       </c>
-      <c r="V17" s="6">
+      <c r="AB17" s="6">
         <v>20345</v>
       </c>
-      <c r="W17" s="6">
+      <c r="AC17" s="6">
         <v>19989</v>
       </c>
-      <c r="X17" s="6">
+      <c r="AD17" s="6">
         <v>19259</v>
       </c>
-      <c r="Y17" s="6">
+      <c r="AE17" s="6">
         <v>19857</v>
       </c>
-      <c r="Z17" s="6">
+      <c r="AF17" s="6">
         <v>19452</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
+        <v>9329</v>
+      </c>
+      <c r="C18" s="5">
+        <v>9782</v>
+      </c>
+      <c r="D18" s="5">
+        <v>8531</v>
+      </c>
+      <c r="E18" s="5">
+        <v>10227</v>
+      </c>
+      <c r="F18" s="5">
+        <v>10167</v>
+      </c>
+      <c r="G18" s="5">
+        <v>10714</v>
+      </c>
+      <c r="H18" s="6">
         <v>11970</v>
       </c>
-      <c r="C18" s="6">
+      <c r="I18" s="6">
         <v>12887</v>
       </c>
-      <c r="D18" s="6">
+      <c r="J18" s="6">
         <v>12844</v>
       </c>
-      <c r="E18" s="6">
+      <c r="K18" s="6">
         <v>13235</v>
       </c>
-      <c r="F18" s="6">
+      <c r="L18" s="6">
         <v>14026</v>
       </c>
-      <c r="G18" s="6">
+      <c r="M18" s="6">
         <v>9982</v>
       </c>
-      <c r="H18" s="6">
+      <c r="N18" s="6">
         <v>14060</v>
       </c>
-      <c r="I18" s="6">
+      <c r="O18" s="6">
         <v>14485</v>
       </c>
-      <c r="J18" s="6">
+      <c r="P18" s="6">
         <v>13122</v>
       </c>
-      <c r="K18" s="6">
+      <c r="Q18" s="6">
         <v>9832</v>
       </c>
-      <c r="L18" s="6">
+      <c r="R18" s="6">
         <v>8049</v>
       </c>
-      <c r="M18" s="6">
+      <c r="S18" s="6">
         <v>10119</v>
       </c>
-      <c r="N18" s="6">
+      <c r="T18" s="6">
         <v>7112</v>
       </c>
-      <c r="O18" s="6">
+      <c r="U18" s="6">
         <v>8559</v>
       </c>
-      <c r="P18" s="6">
+      <c r="V18" s="6">
         <v>10117</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="W18" s="6">
         <v>9959</v>
       </c>
-      <c r="R18" s="6">
+      <c r="X18" s="6">
         <v>10191</v>
       </c>
-      <c r="S18" s="6">
+      <c r="Y18" s="6">
         <v>10348</v>
       </c>
-      <c r="T18" s="6">
+      <c r="Z18" s="6">
         <v>10335</v>
       </c>
-      <c r="U18" s="6">
+      <c r="AA18" s="6">
         <v>10325</v>
       </c>
-      <c r="V18" s="6">
+      <c r="AB18" s="6">
         <v>10165</v>
       </c>
-      <c r="W18" s="6">
+      <c r="AC18" s="6">
         <v>9972</v>
       </c>
-      <c r="X18" s="6">
+      <c r="AD18" s="6">
         <v>9626</v>
       </c>
-      <c r="Y18" s="6">
+      <c r="AE18" s="6">
         <v>9537</v>
       </c>
-      <c r="Z18" s="6">
+      <c r="AF18" s="6">
         <v>10400</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
+        <v>25403</v>
+      </c>
+      <c r="C19" s="5">
+        <v>24663</v>
+      </c>
+      <c r="D19" s="5">
+        <v>23210</v>
+      </c>
+      <c r="E19" s="5">
+        <v>26996</v>
+      </c>
+      <c r="F19" s="5">
+        <v>20095</v>
+      </c>
+      <c r="G19" s="5">
+        <v>20806</v>
+      </c>
+      <c r="H19" s="6">
         <v>22873</v>
       </c>
-      <c r="C19" s="6">
+      <c r="I19" s="6">
         <v>22222</v>
       </c>
-      <c r="D19" s="6">
+      <c r="J19" s="6">
         <v>24421</v>
       </c>
-      <c r="E19" s="6">
+      <c r="K19" s="6">
         <v>25356</v>
       </c>
-      <c r="F19" s="6">
+      <c r="L19" s="6">
         <v>22466</v>
       </c>
-      <c r="G19" s="6">
+      <c r="M19" s="6">
         <v>18423</v>
       </c>
-      <c r="H19" s="6">
+      <c r="N19" s="6">
         <v>17067</v>
       </c>
-      <c r="I19" s="6">
+      <c r="O19" s="6">
         <v>15090</v>
       </c>
-      <c r="J19" s="6">
+      <c r="P19" s="6">
         <v>15425</v>
       </c>
-      <c r="K19" s="6">
+      <c r="Q19" s="6">
         <v>22895</v>
       </c>
-      <c r="L19" s="6">
+      <c r="R19" s="6">
         <v>21573</v>
       </c>
-      <c r="M19" s="6">
+      <c r="S19" s="6">
         <v>21560</v>
       </c>
-      <c r="N19" s="6">
+      <c r="T19" s="6">
         <v>16095</v>
       </c>
-      <c r="O19" s="6">
+      <c r="U19" s="6">
         <v>18132</v>
       </c>
-      <c r="P19" s="6">
+      <c r="V19" s="6">
         <v>20623</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="W19" s="6">
         <v>21534</v>
       </c>
-      <c r="R19" s="6">
+      <c r="X19" s="6">
         <v>25581</v>
       </c>
-      <c r="S19" s="6">
+      <c r="Y19" s="6">
         <v>25239</v>
       </c>
-      <c r="T19" s="6">
+      <c r="Z19" s="6">
         <v>26253</v>
       </c>
-      <c r="U19" s="6">
+      <c r="AA19" s="6">
         <v>25074</v>
       </c>
-      <c r="V19" s="6">
+      <c r="AB19" s="6">
         <v>25287</v>
       </c>
-      <c r="W19" s="6">
+      <c r="AC19" s="6">
         <v>23662</v>
       </c>
-      <c r="X19" s="6">
+      <c r="AD19" s="6">
         <v>22990</v>
       </c>
-      <c r="Y19" s="6">
+      <c r="AE19" s="6">
         <v>22299</v>
       </c>
-      <c r="Z19" s="6">
+      <c r="AF19" s="6">
         <v>24797</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
+        <v>1494</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1930</v>
+      </c>
+      <c r="D20" s="5">
+        <v>1667</v>
+      </c>
+      <c r="E20" s="5">
+        <v>1818</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1935</v>
+      </c>
+      <c r="G20" s="5">
+        <v>1632</v>
+      </c>
+      <c r="H20" s="6">
         <v>1639</v>
       </c>
-      <c r="C20" s="6">
+      <c r="I20" s="6">
         <v>1645</v>
       </c>
-      <c r="D20" s="6">
+      <c r="J20" s="6">
         <v>1515</v>
       </c>
-      <c r="E20" s="6">
+      <c r="K20" s="6">
         <v>1611</v>
       </c>
-      <c r="F20" s="6">
+      <c r="L20" s="6">
         <v>1637</v>
       </c>
-      <c r="G20" s="6">
+      <c r="M20" s="6">
         <v>2424</v>
       </c>
-      <c r="H20" s="6">
+      <c r="N20" s="6">
         <v>1505</v>
       </c>
-      <c r="I20" s="6">
+      <c r="O20" s="6">
         <v>1546</v>
       </c>
-      <c r="J20" s="6">
+      <c r="P20" s="6">
         <v>4017</v>
       </c>
-      <c r="K20" s="6">
+      <c r="Q20" s="6">
         <v>1950</v>
       </c>
-      <c r="L20" s="6">
+      <c r="R20" s="6">
         <v>1785</v>
       </c>
-      <c r="M20" s="6">
+      <c r="S20" s="6">
         <v>1695</v>
       </c>
-      <c r="N20" s="6">
+      <c r="T20" s="6">
         <v>1845</v>
       </c>
-      <c r="O20" s="6">
+      <c r="U20" s="6">
         <v>2118</v>
       </c>
-      <c r="P20" s="6">
+      <c r="V20" s="6">
         <v>3795</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="W20" s="6">
         <v>4009</v>
       </c>
-      <c r="R20" s="6">
+      <c r="X20" s="6">
         <v>4026</v>
       </c>
-      <c r="S20" s="6">
+      <c r="Y20" s="6">
         <v>3843</v>
       </c>
-      <c r="T20" s="6">
+      <c r="Z20" s="6">
         <v>3854</v>
       </c>
-      <c r="U20" s="6">
+      <c r="AA20" s="6">
         <v>3471</v>
       </c>
-      <c r="V20" s="6">
+      <c r="AB20" s="6">
         <v>4124</v>
       </c>
-      <c r="W20" s="6">
+      <c r="AC20" s="6">
         <v>5218</v>
       </c>
-      <c r="X20" s="6">
+      <c r="AD20" s="6">
         <v>5760</v>
       </c>
-      <c r="Y20" s="6">
+      <c r="AE20" s="6">
         <v>7083</v>
       </c>
-      <c r="Z20" s="6">
+      <c r="AF20" s="6">
         <v>4345</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
+        <v>24727</v>
+      </c>
+      <c r="C21" s="5">
+        <v>27469</v>
+      </c>
+      <c r="D21" s="5">
+        <v>28307</v>
+      </c>
+      <c r="E21" s="5">
+        <v>29245</v>
+      </c>
+      <c r="F21" s="5">
+        <v>28710</v>
+      </c>
+      <c r="G21" s="5">
+        <v>29723</v>
+      </c>
+      <c r="H21" s="6">
         <v>30427</v>
       </c>
-      <c r="C21" s="6">
+      <c r="I21" s="6">
         <v>30787</v>
       </c>
-      <c r="D21" s="6">
+      <c r="J21" s="6">
         <v>29024</v>
       </c>
-      <c r="E21" s="6">
+      <c r="K21" s="6">
         <v>31388</v>
       </c>
-      <c r="F21" s="6">
+      <c r="L21" s="6">
         <v>29912</v>
       </c>
-      <c r="G21" s="6">
+      <c r="M21" s="6">
         <v>30414</v>
       </c>
-      <c r="H21" s="6">
+      <c r="N21" s="6">
         <v>33900</v>
       </c>
-      <c r="I21" s="6">
+      <c r="O21" s="6">
         <v>37396</v>
       </c>
-      <c r="J21" s="6">
+      <c r="P21" s="6">
         <v>37858</v>
       </c>
-      <c r="K21" s="6">
+      <c r="Q21" s="6">
         <v>40781</v>
       </c>
-      <c r="L21" s="6">
+      <c r="R21" s="6">
         <v>43370</v>
       </c>
-      <c r="M21" s="6">
+      <c r="S21" s="6">
         <v>42280</v>
       </c>
-      <c r="N21" s="6">
+      <c r="T21" s="6">
         <v>52561</v>
       </c>
-      <c r="O21" s="6">
+      <c r="U21" s="6">
         <v>47978</v>
       </c>
-      <c r="P21" s="6">
+      <c r="V21" s="6">
         <v>50300</v>
       </c>
-      <c r="Q21" s="6">
+      <c r="W21" s="6">
         <v>52578</v>
       </c>
-      <c r="R21" s="6">
+      <c r="X21" s="6">
         <v>49246</v>
       </c>
-      <c r="S21" s="6">
+      <c r="Y21" s="6">
         <v>54296</v>
       </c>
-      <c r="T21" s="6">
+      <c r="Z21" s="6">
         <v>53020</v>
       </c>
-      <c r="U21" s="6">
+      <c r="AA21" s="6">
         <v>53040</v>
       </c>
-      <c r="V21" s="6">
+      <c r="AB21" s="6">
         <v>58806</v>
       </c>
-      <c r="W21" s="6">
+      <c r="AC21" s="6">
         <v>60458</v>
       </c>
-      <c r="X21" s="6">
+      <c r="AD21" s="6">
         <v>61836</v>
       </c>
-      <c r="Y21" s="6">
+      <c r="AE21" s="6">
         <v>66853</v>
       </c>
-      <c r="Z21" s="6">
+      <c r="AF21" s="6">
         <v>72981</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
+        <v>9967</v>
+      </c>
+      <c r="C22" s="5">
+        <v>10606</v>
+      </c>
+      <c r="D22" s="5">
+        <v>10976</v>
+      </c>
+      <c r="E22" s="5">
+        <v>11212</v>
+      </c>
+      <c r="F22" s="5">
+        <v>11978</v>
+      </c>
+      <c r="G22" s="5">
+        <v>11338</v>
+      </c>
+      <c r="H22" s="6">
         <v>11616</v>
       </c>
-      <c r="C22" s="6">
+      <c r="I22" s="6">
         <v>11193</v>
       </c>
-      <c r="D22" s="6">
+      <c r="J22" s="6">
         <v>10573</v>
       </c>
-      <c r="E22" s="6">
+      <c r="K22" s="6">
         <v>9848</v>
       </c>
-      <c r="F22" s="6">
+      <c r="L22" s="6">
         <v>9551</v>
       </c>
-      <c r="G22" s="6">
+      <c r="M22" s="6">
         <v>9474</v>
       </c>
-      <c r="H22" s="6">
+      <c r="N22" s="6">
         <v>13224</v>
       </c>
-      <c r="I22" s="6">
+      <c r="O22" s="6">
         <v>16164</v>
       </c>
-      <c r="J22" s="6">
+      <c r="P22" s="6">
         <v>18948</v>
       </c>
-      <c r="K22" s="6">
+      <c r="Q22" s="6">
         <v>21115</v>
       </c>
-      <c r="L22" s="6">
+      <c r="R22" s="6">
         <v>22020</v>
       </c>
-      <c r="M22" s="6">
+      <c r="S22" s="6">
         <v>21758</v>
       </c>
-      <c r="N22" s="6">
+      <c r="T22" s="6">
         <v>22302</v>
       </c>
-      <c r="O22" s="6">
+      <c r="U22" s="6">
         <v>22567</v>
       </c>
-      <c r="P22" s="6">
+      <c r="V22" s="6">
         <v>24147</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="W22" s="6">
         <v>23373</v>
       </c>
-      <c r="R22" s="6">
+      <c r="X22" s="6">
         <v>22391</v>
       </c>
-      <c r="S22" s="6">
+      <c r="Y22" s="6">
         <v>22254</v>
       </c>
-      <c r="T22" s="6">
+      <c r="Z22" s="6">
         <v>22209</v>
       </c>
-      <c r="U22" s="6">
+      <c r="AA22" s="6">
         <v>21917</v>
       </c>
-      <c r="V22" s="6">
+      <c r="AB22" s="6">
         <v>19980</v>
       </c>
-      <c r="W22" s="6">
+      <c r="AC22" s="6">
         <v>19276</v>
       </c>
-      <c r="X22" s="6">
+      <c r="AD22" s="6">
         <v>18412</v>
       </c>
-      <c r="Y22" s="6">
+      <c r="AE22" s="6">
         <v>18318</v>
       </c>
-      <c r="Z22" s="6">
+      <c r="AF22" s="6">
         <v>18551</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
+        <v>432904</v>
+      </c>
+      <c r="C23" s="5">
+        <v>466462</v>
+      </c>
+      <c r="D23" s="5">
+        <v>469817</v>
+      </c>
+      <c r="E23" s="5">
+        <v>163960</v>
+      </c>
+      <c r="F23" s="5">
+        <v>453616</v>
+      </c>
+      <c r="G23" s="5">
+        <v>461240</v>
+      </c>
+      <c r="H23" s="6">
         <v>428431</v>
       </c>
-      <c r="C23" s="6">
+      <c r="I23" s="6">
         <v>418887</v>
       </c>
-      <c r="D23" s="6">
+      <c r="J23" s="6">
         <v>420817</v>
       </c>
-      <c r="E23" s="6">
+      <c r="K23" s="6">
         <v>429820</v>
       </c>
-      <c r="F23" s="6">
+      <c r="L23" s="6">
         <v>413808</v>
       </c>
-      <c r="G23" s="6">
+      <c r="M23" s="6">
         <v>416425</v>
       </c>
-      <c r="H23" s="6">
+      <c r="N23" s="6">
         <v>413409</v>
       </c>
-      <c r="I23" s="6">
+      <c r="O23" s="6">
         <v>402006</v>
       </c>
-      <c r="J23" s="6">
+      <c r="P23" s="6">
         <v>380043</v>
       </c>
-      <c r="K23" s="6">
+      <c r="Q23" s="6">
         <v>366941</v>
       </c>
-      <c r="L23" s="6">
+      <c r="R23" s="6">
         <v>365976</v>
       </c>
-      <c r="M23" s="6">
+      <c r="S23" s="6">
         <v>432872</v>
       </c>
-      <c r="N23" s="6">
+      <c r="T23" s="6">
         <v>379976</v>
       </c>
-      <c r="O23" s="6">
+      <c r="U23" s="6">
         <v>382286</v>
       </c>
-      <c r="P23" s="6">
+      <c r="V23" s="6">
         <v>388798</v>
       </c>
-      <c r="Q23" s="6">
+      <c r="W23" s="6">
         <v>446481</v>
       </c>
-      <c r="R23" s="6">
+      <c r="X23" s="6">
         <v>430040</v>
       </c>
-      <c r="S23" s="6">
+      <c r="Y23" s="6">
         <v>417324</v>
       </c>
-      <c r="T23" s="6">
+      <c r="Z23" s="6">
         <v>375952</v>
       </c>
-      <c r="U23" s="6">
+      <c r="AA23" s="6">
         <v>363905</v>
       </c>
-      <c r="V23" s="6">
+      <c r="AB23" s="6">
         <v>346446</v>
       </c>
-      <c r="W23" s="6">
+      <c r="AC23" s="6">
         <v>317241</v>
       </c>
-      <c r="X23" s="6">
+      <c r="AD23" s="6">
         <v>295412</v>
       </c>
-      <c r="Y23" s="6">
+      <c r="AE23" s="6">
         <v>279788</v>
       </c>
-      <c r="Z23" s="6">
+      <c r="AF23" s="6">
         <v>286613</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
+        <v>16044</v>
+      </c>
+      <c r="C24" s="5">
+        <v>15480</v>
+      </c>
+      <c r="D24" s="5">
+        <v>16282</v>
+      </c>
+      <c r="E24" s="5">
+        <v>16644</v>
+      </c>
+      <c r="F24" s="5">
+        <v>16870</v>
+      </c>
+      <c r="G24" s="5">
+        <v>16795</v>
+      </c>
+      <c r="H24" s="6">
         <v>17477</v>
       </c>
-      <c r="C24" s="6">
+      <c r="I24" s="6">
         <v>18212</v>
       </c>
-      <c r="D24" s="6">
+      <c r="J24" s="6">
         <v>19188</v>
       </c>
-      <c r="E24" s="6">
+      <c r="K24" s="6">
         <v>18895</v>
       </c>
-      <c r="F24" s="6">
+      <c r="L24" s="6">
         <v>20382</v>
       </c>
-      <c r="G24" s="6">
+      <c r="M24" s="6">
         <v>24186</v>
       </c>
-      <c r="H24" s="6">
+      <c r="N24" s="6">
         <v>25710</v>
       </c>
-      <c r="I24" s="6">
+      <c r="O24" s="6">
         <v>27370</v>
       </c>
-      <c r="J24" s="6">
+      <c r="P24" s="6">
         <v>37172</v>
       </c>
-      <c r="K24" s="6">
+      <c r="Q24" s="6">
         <v>29470</v>
       </c>
-      <c r="L24" s="6">
+      <c r="R24" s="6">
         <v>31153</v>
       </c>
-      <c r="M24" s="6">
+      <c r="S24" s="6">
         <v>30379</v>
       </c>
-      <c r="N24" s="6">
+      <c r="T24" s="6">
         <v>30473</v>
       </c>
-      <c r="O24" s="6">
+      <c r="U24" s="6">
         <v>29705</v>
       </c>
-      <c r="P24" s="6">
+      <c r="V24" s="6">
         <v>29208</v>
       </c>
-      <c r="Q24" s="6">
+      <c r="W24" s="6">
         <v>26468</v>
       </c>
-      <c r="R24" s="6">
+      <c r="X24" s="6">
         <v>25557</v>
       </c>
-      <c r="S24" s="6">
+      <c r="Y24" s="6">
         <v>28621</v>
       </c>
-      <c r="T24" s="6">
+      <c r="Z24" s="6">
         <v>27912</v>
       </c>
-      <c r="U24" s="6">
+      <c r="AA24" s="6">
         <v>29450</v>
       </c>
-      <c r="V24" s="6">
+      <c r="AB24" s="6">
         <v>32207</v>
       </c>
-      <c r="W24" s="6">
+      <c r="AC24" s="6">
         <v>31388</v>
       </c>
-      <c r="X24" s="6">
+      <c r="AD24" s="6">
         <v>30152</v>
       </c>
-      <c r="Y24" s="6">
+      <c r="AE24" s="6">
         <v>32868</v>
       </c>
-      <c r="Z24" s="6">
+      <c r="AF24" s="6">
         <v>34303</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6">
         <v>3712</v>
       </c>
-      <c r="C25" s="6">
+      <c r="I25" s="6">
         <v>3338</v>
       </c>
-      <c r="D25" s="6">
+      <c r="J25" s="6">
         <v>3592</v>
       </c>
-      <c r="E25" s="6">
+      <c r="K25" s="6">
         <v>4400</v>
       </c>
-      <c r="F25" s="6">
+      <c r="L25" s="6">
         <v>4799</v>
       </c>
-      <c r="G25" s="6">
+      <c r="M25" s="6">
         <v>5028</v>
       </c>
-      <c r="H25" s="6">
+      <c r="N25" s="6">
         <v>8225</v>
       </c>
-      <c r="I25" s="6">
+      <c r="O25" s="6">
         <v>17640</v>
       </c>
-      <c r="J25" s="6">
+      <c r="P25" s="6">
         <v>30620</v>
       </c>
-      <c r="K25" s="6">
+      <c r="Q25" s="6">
         <v>34086</v>
       </c>
-      <c r="L25" s="6">
+      <c r="R25" s="6">
         <v>54778</v>
       </c>
-      <c r="M25" s="6">
+      <c r="S25" s="6">
         <v>60548</v>
       </c>
-      <c r="N25" s="6">
+      <c r="T25" s="6">
         <v>69106</v>
       </c>
-      <c r="O25" s="6">
+      <c r="U25" s="6">
         <v>54301</v>
       </c>
-      <c r="P25" s="6">
+      <c r="V25" s="6">
         <v>53916</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="W25" s="6">
         <v>52865</v>
       </c>
-      <c r="R25" s="6">
+      <c r="X25" s="6">
         <v>52549</v>
       </c>
-      <c r="S25" s="6">
+      <c r="Y25" s="6">
         <v>54744</v>
       </c>
-      <c r="T25" s="6">
+      <c r="Z25" s="6">
         <v>52017</v>
       </c>
-      <c r="U25" s="6">
+      <c r="AA25" s="6">
         <v>57646</v>
       </c>
-      <c r="V25" s="6">
+      <c r="AB25" s="6">
         <v>53023</v>
       </c>
-      <c r="W25" s="6">
+      <c r="AC25" s="6">
         <v>50002</v>
       </c>
-      <c r="X25" s="6">
+      <c r="AD25" s="6">
         <v>49084</v>
       </c>
-      <c r="Y25" s="6">
+      <c r="AE25" s="6">
         <v>50634</v>
       </c>
-      <c r="Z25" s="6">
+      <c r="AF25" s="6">
         <v>52661</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="6">
         <v>20193</v>
       </c>
-      <c r="C26" s="6">
+      <c r="I26" s="6">
         <v>20187</v>
       </c>
-      <c r="D26" s="6">
+      <c r="J26" s="6">
         <v>13275</v>
       </c>
-      <c r="E26" s="6">
+      <c r="K26" s="6">
         <v>21370</v>
       </c>
-      <c r="F26" s="6">
+      <c r="L26" s="6">
         <v>23983</v>
       </c>
-      <c r="G26" s="6">
+      <c r="M26" s="6">
         <v>28028</v>
       </c>
-      <c r="H26" s="6">
+      <c r="N26" s="6">
         <v>30337</v>
       </c>
-      <c r="I26" s="6">
+      <c r="O26" s="6">
         <v>36693</v>
       </c>
-      <c r="J26" s="6">
+      <c r="P26" s="6">
         <v>38002</v>
       </c>
-      <c r="K26" s="6">
+      <c r="Q26" s="6">
         <v>39881</v>
       </c>
-      <c r="L26" s="6">
+      <c r="R26" s="6">
         <v>38220</v>
       </c>
-      <c r="M26" s="6">
+      <c r="S26" s="6">
         <v>42813</v>
       </c>
-      <c r="N26" s="6">
+      <c r="T26" s="6">
         <v>45430</v>
       </c>
-      <c r="O26" s="6">
+      <c r="U26" s="6">
         <v>44981</v>
       </c>
-      <c r="P26" s="6">
+      <c r="V26" s="6">
         <v>40091</v>
       </c>
-      <c r="Q26" s="6">
+      <c r="W26" s="6">
         <v>40090</v>
       </c>
-      <c r="R26" s="6">
+      <c r="X26" s="6">
         <v>39338</v>
       </c>
-      <c r="S26" s="6">
+      <c r="Y26" s="6">
         <v>37763</v>
       </c>
-      <c r="T26" s="6">
+      <c r="Z26" s="6">
         <v>36504</v>
       </c>
-      <c r="U26" s="6">
+      <c r="AA26" s="6">
         <v>33816</v>
       </c>
-      <c r="V26" s="6">
+      <c r="AB26" s="6">
         <v>32646</v>
       </c>
-      <c r="W26" s="6">
+      <c r="AC26" s="6">
         <v>30893</v>
       </c>
-      <c r="X26" s="6">
+      <c r="AD26" s="6">
         <v>28368</v>
       </c>
-      <c r="Y26" s="6">
+      <c r="AE26" s="6">
         <v>25354</v>
       </c>
-      <c r="Z26" s="6">
+      <c r="AF26" s="6">
         <v>23847</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
+        <v>33</v>
+      </c>
+      <c r="C27" s="5">
+        <v>13</v>
+      </c>
+      <c r="D27" s="5">
+        <v>33</v>
+      </c>
+      <c r="E27" s="5">
+        <v>18</v>
+      </c>
+      <c r="F27" s="5">
+        <v>16</v>
+      </c>
+      <c r="G27" s="5">
+        <v>18</v>
+      </c>
+      <c r="H27" s="6">
         <v>17</v>
       </c>
-      <c r="C27" s="6">
+      <c r="I27" s="6">
         <v>18</v>
       </c>
-      <c r="D27" s="6">
+      <c r="J27" s="6">
         <v>18</v>
       </c>
-      <c r="E27" s="6">
+      <c r="K27" s="6">
         <v>19</v>
       </c>
-      <c r="F27" s="6">
+      <c r="L27" s="6">
         <v>22</v>
       </c>
-      <c r="G27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="M27" s="6" t="s">
         <v>29</v>
       </c>
@@ -2849,1529 +3158,1823 @@
       <c r="Z27" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF27" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="6">
         <v>616240</v>
       </c>
-      <c r="C28" s="6">
+      <c r="I28" s="6">
         <v>607014</v>
       </c>
-      <c r="D28" s="6">
+      <c r="J28" s="6">
         <v>610635</v>
       </c>
-      <c r="E28" s="6">
+      <c r="K28" s="6">
         <v>626910</v>
       </c>
-      <c r="F28" s="6">
+      <c r="L28" s="6">
         <v>611944</v>
       </c>
-      <c r="G28" s="6">
+      <c r="M28" s="6">
         <v>611579</v>
       </c>
-      <c r="H28" s="6">
+      <c r="N28" s="6">
         <v>636839</v>
       </c>
-      <c r="I28" s="6">
+      <c r="O28" s="6">
         <v>655010</v>
       </c>
-      <c r="J28" s="6">
+      <c r="P28" s="6">
         <v>662173</v>
       </c>
-      <c r="K28" s="6">
+      <c r="Q28" s="6">
         <v>677200</v>
       </c>
-      <c r="L28" s="6">
+      <c r="R28" s="6">
         <v>698062</v>
       </c>
-      <c r="M28" s="6">
+      <c r="S28" s="6">
         <v>771657</v>
       </c>
-      <c r="N28" s="6">
+      <c r="T28" s="6">
         <v>732104</v>
       </c>
-      <c r="O28" s="6">
+      <c r="U28" s="6">
         <v>715992</v>
       </c>
-      <c r="P28" s="6">
+      <c r="V28" s="6">
         <v>734183</v>
       </c>
-      <c r="Q28" s="6">
+      <c r="W28" s="6">
         <v>790146</v>
       </c>
-      <c r="R28" s="6">
+      <c r="X28" s="6">
         <v>770542</v>
       </c>
-      <c r="S28" s="6">
+      <c r="Y28" s="6">
         <v>766999</v>
       </c>
-      <c r="T28" s="6">
+      <c r="Z28" s="6">
         <v>719544</v>
       </c>
-      <c r="U28" s="6">
+      <c r="AA28" s="6">
         <v>710520</v>
       </c>
-      <c r="V28" s="6">
+      <c r="AB28" s="6">
         <v>695377</v>
       </c>
-      <c r="W28" s="6">
+      <c r="AC28" s="6">
         <v>655894</v>
       </c>
-      <c r="X28" s="6">
+      <c r="AD28" s="6">
         <v>626877</v>
       </c>
-      <c r="Y28" s="6">
+      <c r="AE28" s="6">
         <v>616601</v>
       </c>
-      <c r="Z28" s="6">
+      <c r="AF28" s="6">
         <v>638065</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="14"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="15"/>
+      <c r="AF29" s="16"/>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
+        <v>29855</v>
+      </c>
+      <c r="C30" s="5">
+        <v>31036</v>
+      </c>
+      <c r="D30" s="5">
+        <v>29376</v>
+      </c>
+      <c r="E30" s="5">
+        <v>28531</v>
+      </c>
+      <c r="F30" s="5">
+        <v>26765</v>
+      </c>
+      <c r="G30" s="5">
+        <v>25667</v>
+      </c>
+      <c r="H30" s="6">
         <v>24845</v>
       </c>
-      <c r="C30" s="6">
+      <c r="I30" s="6">
         <v>24845</v>
       </c>
-      <c r="D30" s="6">
+      <c r="J30" s="6">
         <v>25043</v>
       </c>
-      <c r="E30" s="6">
+      <c r="K30" s="6">
         <v>26649</v>
       </c>
-      <c r="F30" s="6">
+      <c r="L30" s="6">
         <v>24864</v>
       </c>
-      <c r="G30" s="6">
+      <c r="M30" s="6">
         <v>26334</v>
       </c>
-      <c r="H30" s="6">
+      <c r="N30" s="6">
         <v>26933</v>
       </c>
-      <c r="I30" s="6">
+      <c r="O30" s="6">
         <v>27569</v>
       </c>
-      <c r="J30" s="6">
+      <c r="P30" s="6">
         <v>26945</v>
       </c>
-      <c r="K30" s="6">
+      <c r="Q30" s="6">
         <v>29712</v>
       </c>
-      <c r="L30" s="6">
+      <c r="R30" s="6">
         <v>31492</v>
       </c>
-      <c r="M30" s="6">
+      <c r="S30" s="6">
         <v>33373</v>
       </c>
-      <c r="N30" s="6">
+      <c r="T30" s="6">
         <v>30956</v>
       </c>
-      <c r="O30" s="6">
+      <c r="U30" s="6">
         <v>29833</v>
       </c>
-      <c r="P30" s="6">
+      <c r="V30" s="6">
         <v>29980</v>
       </c>
-      <c r="Q30" s="6">
+      <c r="W30" s="6">
         <v>26531</v>
       </c>
-      <c r="R30" s="6">
+      <c r="X30" s="6">
         <v>25145</v>
       </c>
-      <c r="S30" s="6">
+      <c r="Y30" s="6">
         <v>27126</v>
       </c>
-      <c r="T30" s="6">
+      <c r="Z30" s="6">
         <v>26419</v>
       </c>
-      <c r="U30" s="6">
+      <c r="AA30" s="6">
         <v>25987</v>
       </c>
-      <c r="V30" s="6">
+      <c r="AB30" s="6">
         <v>24842</v>
       </c>
-      <c r="W30" s="6">
+      <c r="AC30" s="6">
         <v>25115</v>
       </c>
-      <c r="X30" s="6">
+      <c r="AD30" s="6">
         <v>24205</v>
       </c>
-      <c r="Y30" s="6">
+      <c r="AE30" s="6">
         <v>23666</v>
       </c>
-      <c r="Z30" s="6">
+      <c r="AF30" s="6">
         <v>23152</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
+        <v>101133</v>
+      </c>
+      <c r="C31" s="5">
+        <v>124887</v>
+      </c>
+      <c r="D31" s="5">
+        <v>129064</v>
+      </c>
+      <c r="E31" s="5">
+        <v>144916</v>
+      </c>
+      <c r="F31" s="5">
+        <v>152401</v>
+      </c>
+      <c r="G31" s="5">
+        <v>152289</v>
+      </c>
+      <c r="H31" s="6">
         <v>166289</v>
       </c>
-      <c r="C31" s="6">
+      <c r="I31" s="6">
         <v>161539</v>
       </c>
-      <c r="D31" s="6">
+      <c r="J31" s="6">
         <v>165799</v>
       </c>
-      <c r="E31" s="6">
+      <c r="K31" s="6">
         <v>199708</v>
       </c>
-      <c r="F31" s="6">
+      <c r="L31" s="6">
         <v>233582</v>
       </c>
-      <c r="G31" s="6">
+      <c r="M31" s="6">
         <v>198092</v>
       </c>
-      <c r="H31" s="6">
+      <c r="N31" s="6">
         <v>224944</v>
       </c>
-      <c r="I31" s="6">
+      <c r="O31" s="6">
         <v>238683</v>
       </c>
-      <c r="J31" s="6">
+      <c r="P31" s="6">
         <v>224263</v>
       </c>
-      <c r="K31" s="6">
+      <c r="Q31" s="6">
         <v>245397</v>
       </c>
-      <c r="L31" s="6">
+      <c r="R31" s="6">
         <v>255274</v>
       </c>
-      <c r="M31" s="6">
+      <c r="S31" s="6">
         <v>283448</v>
       </c>
-      <c r="N31" s="6">
+      <c r="T31" s="6">
         <v>299577</v>
       </c>
-      <c r="O31" s="6">
+      <c r="U31" s="6">
         <v>295238</v>
       </c>
-      <c r="P31" s="6">
+      <c r="V31" s="6">
         <v>306940</v>
       </c>
-      <c r="Q31" s="6">
+      <c r="W31" s="6">
         <v>297033</v>
       </c>
-      <c r="R31" s="6">
+      <c r="X31" s="6">
         <v>301631</v>
       </c>
-      <c r="S31" s="6">
+      <c r="Y31" s="6">
         <v>281637</v>
       </c>
-      <c r="T31" s="6">
+      <c r="Z31" s="6">
         <v>264129</v>
       </c>
-      <c r="U31" s="6">
+      <c r="AA31" s="6">
         <v>243199</v>
       </c>
-      <c r="V31" s="6">
+      <c r="AB31" s="6">
         <v>232895</v>
       </c>
-      <c r="W31" s="6">
+      <c r="AC31" s="6">
         <v>236921</v>
       </c>
-      <c r="X31" s="6">
+      <c r="AD31" s="6">
         <v>257577</v>
       </c>
-      <c r="Y31" s="6">
+      <c r="AE31" s="6">
         <v>247765</v>
       </c>
-      <c r="Z31" s="6">
+      <c r="AF31" s="6">
         <v>253061</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
+        <v>28864</v>
+      </c>
+      <c r="C32" s="5">
+        <v>30908</v>
+      </c>
+      <c r="D32" s="5">
+        <v>33371</v>
+      </c>
+      <c r="E32" s="5">
+        <v>30784</v>
+      </c>
+      <c r="F32" s="5">
+        <v>29058</v>
+      </c>
+      <c r="G32" s="5">
+        <v>31374</v>
+      </c>
+      <c r="H32" s="6">
         <v>32312</v>
       </c>
-      <c r="C32" s="6">
+      <c r="I32" s="6">
         <v>32312</v>
       </c>
-      <c r="D32" s="6">
+      <c r="J32" s="6">
         <v>31362</v>
       </c>
-      <c r="E32" s="6">
+      <c r="K32" s="6">
         <v>34190</v>
       </c>
-      <c r="F32" s="6">
+      <c r="L32" s="6">
         <v>31720</v>
       </c>
-      <c r="G32" s="6">
+      <c r="M32" s="6">
         <v>33805</v>
       </c>
-      <c r="H32" s="6">
+      <c r="N32" s="6">
         <v>35349</v>
       </c>
-      <c r="I32" s="6">
+      <c r="O32" s="6">
         <v>35962</v>
       </c>
-      <c r="J32" s="6">
+      <c r="P32" s="6">
         <v>32523</v>
       </c>
-      <c r="K32" s="6">
+      <c r="Q32" s="6">
         <v>34188</v>
       </c>
-      <c r="L32" s="6">
+      <c r="R32" s="6">
         <v>34865</v>
       </c>
-      <c r="M32" s="6">
+      <c r="S32" s="6">
         <v>36163</v>
       </c>
-      <c r="N32" s="6">
+      <c r="T32" s="6">
         <v>34252</v>
       </c>
-      <c r="O32" s="6">
+      <c r="U32" s="6">
         <v>32592</v>
       </c>
-      <c r="P32" s="6">
+      <c r="V32" s="6">
         <v>34857</v>
       </c>
-      <c r="Q32" s="6">
+      <c r="W32" s="6">
         <v>32972</v>
       </c>
-      <c r="R32" s="6">
+      <c r="X32" s="6">
         <v>31551</v>
       </c>
-      <c r="S32" s="6">
+      <c r="Y32" s="6">
         <v>35884</v>
       </c>
-      <c r="T32" s="6">
+      <c r="Z32" s="6">
         <v>38496</v>
       </c>
-      <c r="U32" s="6">
+      <c r="AA32" s="6">
         <v>34649</v>
       </c>
-      <c r="V32" s="6">
+      <c r="AB32" s="6">
         <v>36113</v>
       </c>
-      <c r="W32" s="6">
+      <c r="AC32" s="6">
         <v>35572</v>
       </c>
-      <c r="X32" s="6">
+      <c r="AD32" s="6">
         <v>34133</v>
       </c>
-      <c r="Y32" s="6">
+      <c r="AE32" s="6">
         <v>33225</v>
       </c>
-      <c r="Z32" s="6">
+      <c r="AF32" s="6">
         <v>34539</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
+        <v>9146</v>
+      </c>
+      <c r="C33" s="5">
+        <v>9983</v>
+      </c>
+      <c r="D33" s="5">
+        <v>11218</v>
+      </c>
+      <c r="E33" s="5">
+        <v>11771</v>
+      </c>
+      <c r="F33" s="5">
+        <v>11619</v>
+      </c>
+      <c r="G33" s="5">
+        <v>12174</v>
+      </c>
+      <c r="H33" s="6">
         <v>19782</v>
       </c>
-      <c r="C33" s="6">
+      <c r="I33" s="6">
         <v>19917</v>
       </c>
-      <c r="D33" s="6">
+      <c r="J33" s="6">
         <v>20042</v>
       </c>
-      <c r="E33" s="6">
+      <c r="K33" s="6">
         <v>19807</v>
       </c>
-      <c r="F33" s="6">
+      <c r="L33" s="6">
         <v>19561</v>
       </c>
-      <c r="G33" s="6">
+      <c r="M33" s="6">
         <v>18299</v>
       </c>
-      <c r="H33" s="6">
+      <c r="N33" s="6">
         <v>18877</v>
       </c>
-      <c r="I33" s="6">
+      <c r="O33" s="6">
         <v>18557</v>
       </c>
-      <c r="J33" s="6">
+      <c r="P33" s="6">
         <v>18446</v>
       </c>
-      <c r="K33" s="6">
+      <c r="Q33" s="6">
         <v>18872</v>
       </c>
-      <c r="L33" s="6">
+      <c r="R33" s="6">
         <v>19814</v>
       </c>
-      <c r="M33" s="6">
+      <c r="S33" s="6">
         <v>20182</v>
       </c>
-      <c r="N33" s="6">
+      <c r="T33" s="6">
         <v>23253</v>
       </c>
-      <c r="O33" s="6">
+      <c r="U33" s="6">
         <v>21280</v>
       </c>
-      <c r="P33" s="6">
+      <c r="V33" s="6">
         <v>22848</v>
       </c>
-      <c r="Q33" s="6">
+      <c r="W33" s="6">
         <v>23493</v>
       </c>
-      <c r="R33" s="6">
+      <c r="X33" s="6">
         <v>24534</v>
       </c>
-      <c r="S33" s="6">
+      <c r="Y33" s="6">
         <v>22985</v>
       </c>
-      <c r="T33" s="6">
+      <c r="Z33" s="6">
         <v>23959</v>
       </c>
-      <c r="U33" s="6">
+      <c r="AA33" s="6">
         <v>24243</v>
       </c>
-      <c r="V33" s="6">
+      <c r="AB33" s="6">
         <v>25397</v>
       </c>
-      <c r="W33" s="6">
+      <c r="AC33" s="6">
         <v>24936</v>
       </c>
-      <c r="X33" s="6">
+      <c r="AD33" s="6">
         <v>23826</v>
       </c>
-      <c r="Y33" s="6">
+      <c r="AE33" s="6">
         <v>24912</v>
       </c>
-      <c r="Z33" s="6">
+      <c r="AF33" s="6">
         <v>25267</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="6">
         <v>243227</v>
       </c>
-      <c r="C34" s="6">
+      <c r="I34" s="6">
         <v>238612</v>
       </c>
-      <c r="D34" s="6">
+      <c r="J34" s="6">
         <v>242246</v>
       </c>
-      <c r="E34" s="6">
+      <c r="K34" s="6">
         <v>280353</v>
       </c>
-      <c r="F34" s="6">
+      <c r="L34" s="6">
         <v>309727</v>
       </c>
-      <c r="G34" s="6">
+      <c r="M34" s="6">
         <v>276530</v>
       </c>
-      <c r="H34" s="6">
+      <c r="N34" s="6">
         <v>306103</v>
       </c>
-      <c r="I34" s="6">
+      <c r="O34" s="6">
         <v>320771</v>
       </c>
-      <c r="J34" s="6">
+      <c r="P34" s="6">
         <v>302177</v>
       </c>
-      <c r="K34" s="6">
+      <c r="Q34" s="6">
         <v>328169</v>
       </c>
-      <c r="L34" s="6">
+      <c r="R34" s="6">
         <v>341445</v>
       </c>
-      <c r="M34" s="6">
+      <c r="S34" s="6">
         <v>373166</v>
       </c>
-      <c r="N34" s="6">
+      <c r="T34" s="6">
         <v>388038</v>
       </c>
-      <c r="O34" s="6">
+      <c r="U34" s="6">
         <v>378943</v>
       </c>
-      <c r="P34" s="6">
+      <c r="V34" s="6">
         <v>394625</v>
       </c>
-      <c r="Q34" s="6">
+      <c r="W34" s="6">
         <v>380029</v>
       </c>
-      <c r="R34" s="6">
+      <c r="X34" s="6">
         <v>382862</v>
       </c>
-      <c r="S34" s="6">
+      <c r="Y34" s="6">
         <v>367631</v>
       </c>
-      <c r="T34" s="6">
+      <c r="Z34" s="6">
         <v>353004</v>
       </c>
-      <c r="U34" s="6">
+      <c r="AA34" s="6">
         <v>328079</v>
       </c>
-      <c r="V34" s="6">
+      <c r="AB34" s="6">
         <v>319247</v>
       </c>
-      <c r="W34" s="6">
+      <c r="AC34" s="6">
         <v>322543</v>
       </c>
-      <c r="X34" s="6">
+      <c r="AD34" s="6">
         <v>339741</v>
       </c>
-      <c r="Y34" s="6">
+      <c r="AE34" s="6">
         <v>329568</v>
       </c>
-      <c r="Z34" s="6">
+      <c r="AF34" s="6">
         <v>336019</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="14"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="15"/>
+      <c r="AD35" s="15"/>
+      <c r="AE35" s="15"/>
+      <c r="AF35" s="16"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
+        <v>4624</v>
+      </c>
+      <c r="C36" s="5">
+        <v>8518</v>
+      </c>
+      <c r="D36" s="5">
+        <v>8480</v>
+      </c>
+      <c r="E36" s="5">
+        <v>7593</v>
+      </c>
+      <c r="F36" s="5">
+        <v>7303</v>
+      </c>
+      <c r="G36" s="5">
+        <v>7057</v>
+      </c>
+      <c r="H36" s="6">
         <v>72885</v>
       </c>
-      <c r="C36" s="6">
+      <c r="I36" s="6">
         <v>71923</v>
       </c>
-      <c r="D36" s="6">
+      <c r="J36" s="6">
         <v>68927</v>
       </c>
-      <c r="E36" s="6">
+      <c r="K36" s="6">
         <v>60199</v>
       </c>
-      <c r="F36" s="6">
+      <c r="L36" s="6">
         <v>60274</v>
       </c>
-      <c r="G36" s="6">
+      <c r="M36" s="6">
         <v>57961</v>
       </c>
-      <c r="H36" s="6">
+      <c r="N36" s="6">
         <v>62812</v>
       </c>
-      <c r="I36" s="6">
+      <c r="O36" s="6">
         <v>66724</v>
       </c>
-      <c r="J36" s="6">
+      <c r="P36" s="6">
         <v>66225</v>
       </c>
-      <c r="K36" s="6">
+      <c r="Q36" s="6">
         <v>67146</v>
       </c>
-      <c r="L36" s="6">
+      <c r="R36" s="6">
         <v>63181</v>
       </c>
-      <c r="M36" s="6">
+      <c r="S36" s="6">
         <v>56270</v>
       </c>
-      <c r="N36" s="6">
+      <c r="T36" s="6">
         <v>57269</v>
       </c>
-      <c r="O36" s="6">
+      <c r="U36" s="6">
         <v>58296</v>
       </c>
-      <c r="P36" s="6">
+      <c r="V36" s="6">
         <v>64470</v>
       </c>
-      <c r="Q36" s="6">
+      <c r="W36" s="6">
         <v>64660</v>
       </c>
-      <c r="R36" s="6">
+      <c r="X36" s="6">
         <v>63672</v>
       </c>
-      <c r="S36" s="6">
+      <c r="Y36" s="6">
         <v>61361</v>
       </c>
-      <c r="T36" s="6">
+      <c r="Z36" s="6">
         <v>59194</v>
       </c>
-      <c r="U36" s="6">
+      <c r="AA36" s="6">
         <v>51646</v>
       </c>
-      <c r="V36" s="6">
+      <c r="AB36" s="6">
         <v>48105</v>
       </c>
-      <c r="W36" s="6">
+      <c r="AC36" s="6">
         <v>45471</v>
       </c>
-      <c r="X36" s="6">
+      <c r="AD36" s="6">
         <v>47776</v>
       </c>
-      <c r="Y36" s="6">
+      <c r="AE36" s="6">
         <v>46202</v>
       </c>
-      <c r="Z36" s="6">
+      <c r="AF36" s="6">
         <v>51779</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
+        <v>229849</v>
+      </c>
+      <c r="C37" s="5">
+        <v>255108</v>
+      </c>
+      <c r="D37" s="5">
+        <v>256132</v>
+      </c>
+      <c r="E37" s="5">
+        <v>244450</v>
+      </c>
+      <c r="F37" s="5">
+        <v>231730</v>
+      </c>
+      <c r="G37" s="5">
+        <v>238876</v>
+      </c>
+      <c r="H37" s="6">
         <v>223354</v>
       </c>
-      <c r="C37" s="6">
+      <c r="I37" s="6">
         <v>239249</v>
       </c>
-      <c r="D37" s="6">
+      <c r="J37" s="6">
         <v>259334</v>
       </c>
-      <c r="E37" s="6">
+      <c r="K37" s="6">
         <v>278561</v>
       </c>
-      <c r="F37" s="6">
+      <c r="L37" s="6">
         <v>287551</v>
       </c>
-      <c r="G37" s="6">
+      <c r="M37" s="6">
         <v>283491</v>
       </c>
-      <c r="H37" s="6">
+      <c r="N37" s="6">
         <v>310204</v>
       </c>
-      <c r="I37" s="6">
+      <c r="O37" s="6">
         <v>323611</v>
       </c>
-      <c r="J37" s="6">
+      <c r="P37" s="6">
         <v>338114</v>
       </c>
-      <c r="K37" s="6">
+      <c r="Q37" s="6">
         <v>349107</v>
       </c>
-      <c r="L37" s="6">
+      <c r="R37" s="6">
         <v>339443</v>
       </c>
-      <c r="M37" s="6">
+      <c r="S37" s="6">
         <v>340995</v>
       </c>
-      <c r="N37" s="6">
+      <c r="T37" s="6">
         <v>340130</v>
       </c>
-      <c r="O37" s="6">
+      <c r="U37" s="6">
         <v>355718</v>
       </c>
-      <c r="P37" s="6">
+      <c r="V37" s="6">
         <v>345426</v>
       </c>
-      <c r="Q37" s="6">
+      <c r="W37" s="6">
         <v>326748</v>
       </c>
-      <c r="R37" s="6">
+      <c r="X37" s="6">
         <v>343289</v>
       </c>
-      <c r="S37" s="6">
+      <c r="Y37" s="6">
         <v>295152</v>
       </c>
-      <c r="T37" s="6">
+      <c r="Z37" s="6">
         <v>281794</v>
       </c>
-      <c r="U37" s="6">
+      <c r="AA37" s="6">
         <v>317017</v>
       </c>
-      <c r="V37" s="6">
+      <c r="AB37" s="6">
         <v>306727</v>
       </c>
-      <c r="W37" s="6">
+      <c r="AC37" s="6">
         <v>252470</v>
       </c>
-      <c r="X37" s="6">
+      <c r="AD37" s="6">
         <v>228077</v>
       </c>
-      <c r="Y37" s="6">
+      <c r="AE37" s="6">
         <v>239426</v>
       </c>
-      <c r="Z37" s="6">
+      <c r="AF37" s="6">
         <v>262708</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="6">
         <v>14801</v>
       </c>
-      <c r="C38" s="6">
+      <c r="I38" s="6">
         <v>16211</v>
       </c>
-      <c r="D38" s="6">
+      <c r="J38" s="6">
         <v>15938</v>
       </c>
-      <c r="E38" s="6">
+      <c r="K38" s="6">
         <v>16921</v>
       </c>
-      <c r="F38" s="6">
+      <c r="L38" s="6">
         <v>19003</v>
       </c>
-      <c r="G38" s="6">
+      <c r="M38" s="6">
         <v>20308</v>
       </c>
-      <c r="H38" s="6">
+      <c r="N38" s="6">
         <v>20771</v>
       </c>
-      <c r="I38" s="6">
+      <c r="O38" s="6">
         <v>22630</v>
       </c>
-      <c r="J38" s="6">
+      <c r="P38" s="6">
         <v>23342</v>
       </c>
-      <c r="K38" s="6">
+      <c r="Q38" s="6">
         <v>25461</v>
       </c>
-      <c r="L38" s="6">
+      <c r="R38" s="6">
         <v>27632</v>
       </c>
-      <c r="M38" s="6">
+      <c r="S38" s="6">
         <v>30159</v>
       </c>
-      <c r="N38" s="6">
+      <c r="T38" s="6">
         <v>33145</v>
       </c>
-      <c r="O38" s="6">
+      <c r="U38" s="6">
         <v>36228</v>
       </c>
-      <c r="P38" s="6">
+      <c r="V38" s="6">
         <v>36154</v>
       </c>
-      <c r="Q38" s="6">
+      <c r="W38" s="6">
         <v>38137</v>
       </c>
-      <c r="R38" s="6">
+      <c r="X38" s="6">
         <v>44117</v>
       </c>
-      <c r="S38" s="6">
+      <c r="Y38" s="6">
         <v>45756</v>
       </c>
-      <c r="T38" s="6">
+      <c r="Z38" s="6">
         <v>47754</v>
       </c>
-      <c r="U38" s="6">
+      <c r="AA38" s="6">
         <v>52672</v>
       </c>
-      <c r="V38" s="6">
+      <c r="AB38" s="6">
         <v>61268</v>
       </c>
-      <c r="W38" s="6">
+      <c r="AC38" s="6">
         <v>66375</v>
       </c>
-      <c r="X38" s="6">
+      <c r="AD38" s="6">
         <v>70704</v>
       </c>
-      <c r="Y38" s="6">
+      <c r="AE38" s="6">
         <v>79427</v>
       </c>
-      <c r="Z38" s="6">
+      <c r="AF38" s="6">
         <v>93607</v>
       </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
+        <v>1819</v>
+      </c>
+      <c r="C39" s="5">
+        <v>2029</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1985</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1842</v>
+      </c>
+      <c r="F39" s="5">
+        <v>1562</v>
+      </c>
+      <c r="G39" s="5">
+        <v>1433</v>
+      </c>
+      <c r="H39" s="6">
         <v>3419</v>
       </c>
-      <c r="C39" s="6">
+      <c r="I39" s="6">
         <v>3402</v>
       </c>
-      <c r="D39" s="6">
+      <c r="J39" s="6">
         <v>3684</v>
       </c>
-      <c r="E39" s="6">
+      <c r="K39" s="6">
         <v>3962</v>
       </c>
-      <c r="F39" s="6">
+      <c r="L39" s="6">
         <v>3853</v>
       </c>
-      <c r="G39" s="6">
+      <c r="M39" s="6">
         <v>3854</v>
       </c>
-      <c r="H39" s="6">
+      <c r="N39" s="6">
         <v>4209</v>
       </c>
-      <c r="I39" s="6">
+      <c r="O39" s="6">
         <v>3916</v>
       </c>
-      <c r="J39" s="6">
+      <c r="P39" s="6">
         <v>4443</v>
       </c>
-      <c r="K39" s="6">
+      <c r="Q39" s="6">
         <v>5891</v>
       </c>
-      <c r="L39" s="6">
+      <c r="R39" s="6">
         <v>4033</v>
       </c>
-      <c r="M39" s="6">
+      <c r="S39" s="6">
         <v>2897</v>
       </c>
-      <c r="N39" s="6">
+      <c r="T39" s="6">
         <v>3086</v>
       </c>
-      <c r="O39" s="6">
+      <c r="U39" s="6">
         <v>3855</v>
       </c>
-      <c r="P39" s="6">
+      <c r="V39" s="6">
         <v>4464</v>
       </c>
-      <c r="Q39" s="6">
+      <c r="W39" s="6">
         <v>3824</v>
       </c>
-      <c r="R39" s="6">
+      <c r="X39" s="6">
         <v>3855</v>
       </c>
-      <c r="S39" s="6">
+      <c r="Y39" s="6">
         <v>3708</v>
       </c>
-      <c r="T39" s="6">
+      <c r="Z39" s="6">
         <v>3590</v>
       </c>
-      <c r="U39" s="6">
+      <c r="AA39" s="6">
         <v>3864</v>
       </c>
-      <c r="V39" s="6">
+      <c r="AB39" s="6">
         <v>3613</v>
       </c>
-      <c r="W39" s="6">
+      <c r="AC39" s="6">
         <v>3318</v>
       </c>
-      <c r="X39" s="6">
+      <c r="AD39" s="6">
         <v>3048</v>
       </c>
-      <c r="Y39" s="6">
+      <c r="AE39" s="6">
         <v>2844</v>
       </c>
-      <c r="Z39" s="6">
+      <c r="AF39" s="6">
         <v>2796</v>
       </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
+        <v>577</v>
+      </c>
+      <c r="C40" s="5">
+        <v>801</v>
+      </c>
+      <c r="D40" s="5">
+        <v>832</v>
+      </c>
+      <c r="E40" s="5">
+        <v>863</v>
+      </c>
+      <c r="F40" s="5">
+        <v>861</v>
+      </c>
+      <c r="G40" s="5">
+        <v>921</v>
+      </c>
+      <c r="H40" s="6">
         <v>2523</v>
       </c>
-      <c r="C40" s="6">
+      <c r="I40" s="6">
         <v>2565</v>
       </c>
-      <c r="D40" s="6">
+      <c r="J40" s="6">
         <v>2744</v>
       </c>
-      <c r="E40" s="6">
+      <c r="K40" s="6">
         <v>2894</v>
       </c>
-      <c r="F40" s="6">
+      <c r="L40" s="6">
         <v>2652</v>
       </c>
-      <c r="G40" s="6">
+      <c r="M40" s="6">
         <v>2469</v>
       </c>
-      <c r="H40" s="6">
+      <c r="N40" s="6">
         <v>2688</v>
       </c>
-      <c r="I40" s="6">
+      <c r="O40" s="6">
         <v>2855</v>
       </c>
-      <c r="J40" s="6">
+      <c r="P40" s="6">
         <v>2910</v>
       </c>
-      <c r="K40" s="6">
+      <c r="Q40" s="6">
         <v>2848</v>
       </c>
-      <c r="L40" s="6">
+      <c r="R40" s="6">
         <v>1754</v>
       </c>
-      <c r="M40" s="6">
+      <c r="S40" s="6">
         <v>1255</v>
       </c>
-      <c r="N40" s="6">
+      <c r="T40" s="6">
         <v>911</v>
       </c>
-      <c r="O40" s="6">
+      <c r="U40" s="6">
         <v>855</v>
       </c>
-      <c r="P40" s="6">
+      <c r="V40" s="6">
         <v>762</v>
       </c>
-      <c r="Q40" s="6">
+      <c r="W40" s="6">
         <v>844</v>
       </c>
-      <c r="R40" s="6">
+      <c r="X40" s="6">
         <v>804</v>
       </c>
-      <c r="S40" s="6">
+      <c r="Y40" s="6">
         <v>778</v>
       </c>
-      <c r="T40" s="6">
+      <c r="Z40" s="6">
         <v>780</v>
       </c>
-      <c r="U40" s="6">
+      <c r="AA40" s="6">
         <v>815</v>
       </c>
-      <c r="V40" s="6">
+      <c r="AB40" s="6">
         <v>879</v>
       </c>
-      <c r="W40" s="6">
+      <c r="AC40" s="6">
         <v>919</v>
       </c>
-      <c r="X40" s="6">
+      <c r="AD40" s="6">
         <v>948</v>
       </c>
-      <c r="Y40" s="6">
+      <c r="AE40" s="6">
         <v>967</v>
       </c>
-      <c r="Z40" s="6">
+      <c r="AF40" s="6">
         <v>983</v>
       </c>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="5">
+        <v>61182</v>
+      </c>
+      <c r="C41" s="5">
+        <v>79221</v>
+      </c>
+      <c r="D41" s="5">
+        <v>76589</v>
+      </c>
+      <c r="E41" s="5">
+        <v>73955</v>
+      </c>
+      <c r="F41" s="5">
+        <v>72336</v>
+      </c>
+      <c r="G41" s="5">
+        <v>67730</v>
+      </c>
+      <c r="H41" s="6">
         <v>86036</v>
       </c>
-      <c r="C41" s="6">
+      <c r="I41" s="6">
         <v>91857</v>
       </c>
-      <c r="D41" s="6">
+      <c r="J41" s="6">
         <v>97054</v>
       </c>
-      <c r="E41" s="6">
+      <c r="K41" s="6">
         <v>104318</v>
       </c>
-      <c r="F41" s="6">
+      <c r="L41" s="6">
         <v>114117</v>
       </c>
-      <c r="G41" s="6">
+      <c r="M41" s="6">
         <v>120428</v>
       </c>
-      <c r="H41" s="6">
+      <c r="N41" s="6">
         <v>124729</v>
       </c>
-      <c r="I41" s="6">
+      <c r="O41" s="6">
         <v>135767</v>
       </c>
-      <c r="J41" s="6">
+      <c r="P41" s="6">
         <v>139680</v>
       </c>
-      <c r="K41" s="6">
+      <c r="Q41" s="6">
         <v>146835</v>
       </c>
-      <c r="L41" s="6">
+      <c r="R41" s="6">
         <v>159776</v>
       </c>
-      <c r="M41" s="6">
+      <c r="S41" s="6">
         <v>173645</v>
       </c>
-      <c r="N41" s="6">
+      <c r="T41" s="6">
         <v>186502</v>
       </c>
-      <c r="O41" s="6">
+      <c r="U41" s="6">
         <v>194932</v>
       </c>
-      <c r="P41" s="6">
+      <c r="V41" s="6">
         <v>190271</v>
       </c>
-      <c r="Q41" s="6">
+      <c r="W41" s="6">
         <v>187577</v>
       </c>
-      <c r="R41" s="6">
+      <c r="X41" s="6">
         <v>186976</v>
       </c>
-      <c r="S41" s="6">
+      <c r="Y41" s="6">
         <v>191288</v>
       </c>
-      <c r="T41" s="6">
+      <c r="Z41" s="6">
         <v>191714</v>
       </c>
-      <c r="U41" s="6">
+      <c r="AA41" s="6">
         <v>201636</v>
       </c>
-      <c r="V41" s="6">
+      <c r="AB41" s="6">
         <v>219992</v>
       </c>
-      <c r="W41" s="6">
+      <c r="AC41" s="6">
         <v>221208</v>
       </c>
-      <c r="X41" s="6">
+      <c r="AD41" s="6">
         <v>227621</v>
       </c>
-      <c r="Y41" s="6">
+      <c r="AE41" s="6">
         <v>219834</v>
       </c>
-      <c r="Z41" s="6">
+      <c r="AF41" s="6">
         <v>224030</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="5">
+        <v>29824</v>
+      </c>
+      <c r="C42" s="5">
+        <v>43143</v>
+      </c>
+      <c r="D42" s="5">
+        <v>44069</v>
+      </c>
+      <c r="E42" s="5">
+        <v>44988</v>
+      </c>
+      <c r="F42" s="5">
+        <v>46284</v>
+      </c>
+      <c r="G42" s="5">
+        <v>45876</v>
+      </c>
+      <c r="H42" s="6">
         <v>58845</v>
       </c>
-      <c r="C42" s="6">
+      <c r="I42" s="6">
         <v>64334</v>
       </c>
-      <c r="D42" s="6">
+      <c r="J42" s="6">
         <v>69947</v>
       </c>
-      <c r="E42" s="6">
+      <c r="K42" s="6">
         <v>77608</v>
       </c>
-      <c r="F42" s="6">
+      <c r="L42" s="6">
         <v>87558</v>
       </c>
-      <c r="G42" s="6">
+      <c r="M42" s="6">
         <v>94683</v>
       </c>
-      <c r="H42" s="6">
+      <c r="N42" s="6">
         <v>100376</v>
       </c>
-      <c r="I42" s="6">
+      <c r="O42" s="6">
         <v>113572</v>
       </c>
-      <c r="J42" s="6">
+      <c r="P42" s="6">
         <v>121580</v>
       </c>
-      <c r="K42" s="6">
+      <c r="Q42" s="6">
         <v>131835</v>
       </c>
-      <c r="L42" s="6">
+      <c r="R42" s="6">
         <v>156466</v>
       </c>
-      <c r="M42" s="6">
+      <c r="S42" s="6">
         <v>178333</v>
       </c>
-      <c r="N42" s="6">
+      <c r="T42" s="6">
         <v>202756</v>
       </c>
-      <c r="O42" s="6">
+      <c r="U42" s="6">
         <v>226017</v>
       </c>
-      <c r="P42" s="6">
+      <c r="V42" s="6">
         <v>229921</v>
       </c>
-      <c r="Q42" s="6">
+      <c r="W42" s="6">
         <v>242870</v>
       </c>
-      <c r="R42" s="6">
+      <c r="X42" s="6">
         <v>256638</v>
       </c>
-      <c r="S42" s="6">
+      <c r="Y42" s="6">
         <v>289632</v>
       </c>
-      <c r="T42" s="6">
+      <c r="Z42" s="6">
         <v>305582</v>
       </c>
-      <c r="U42" s="6">
+      <c r="AA42" s="6">
         <v>337691</v>
       </c>
-      <c r="V42" s="6">
+      <c r="AB42" s="6">
         <v>371429</v>
       </c>
-      <c r="W42" s="6">
+      <c r="AC42" s="6">
         <v>399075</v>
       </c>
-      <c r="X42" s="6">
+      <c r="AD42" s="6">
         <v>445174</v>
       </c>
-      <c r="Y42" s="6">
+      <c r="AE42" s="6">
         <v>451626</v>
       </c>
-      <c r="Z42" s="6">
+      <c r="AF42" s="6">
         <v>479120</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="6">
         <v>222303</v>
       </c>
-      <c r="C43" s="6">
+      <c r="I43" s="6">
         <v>216143</v>
       </c>
-      <c r="D43" s="6">
+      <c r="J43" s="6">
         <v>209983</v>
       </c>
-      <c r="E43" s="6">
+      <c r="K43" s="6">
         <v>203823</v>
       </c>
-      <c r="F43" s="6">
+      <c r="L43" s="6">
         <v>195693</v>
       </c>
-      <c r="G43" s="6">
+      <c r="M43" s="6">
         <v>198761</v>
       </c>
-      <c r="H43" s="6">
+      <c r="N43" s="6">
         <v>201872</v>
       </c>
-      <c r="I43" s="6">
+      <c r="O43" s="6">
         <v>204984</v>
       </c>
-      <c r="J43" s="6">
+      <c r="P43" s="6">
         <v>208096</v>
       </c>
-      <c r="K43" s="6">
+      <c r="Q43" s="6">
         <v>211483</v>
       </c>
-      <c r="L43" s="6">
+      <c r="R43" s="6">
         <v>206529</v>
       </c>
-      <c r="M43" s="6">
+      <c r="S43" s="6">
         <v>201575</v>
       </c>
-      <c r="N43" s="6">
+      <c r="T43" s="6">
         <v>196621</v>
       </c>
-      <c r="O43" s="6">
+      <c r="U43" s="6">
         <v>191667</v>
       </c>
-      <c r="P43" s="6">
+      <c r="V43" s="6">
         <v>186713</v>
       </c>
-      <c r="Q43" s="6">
+      <c r="W43" s="6">
         <v>181410</v>
       </c>
-      <c r="R43" s="6">
+      <c r="X43" s="6">
         <v>176107</v>
       </c>
-      <c r="S43" s="6">
+      <c r="Y43" s="6">
         <v>170805</v>
       </c>
-      <c r="T43" s="6">
+      <c r="Z43" s="6">
         <v>165502</v>
       </c>
-      <c r="U43" s="6">
+      <c r="AA43" s="6">
         <v>160199</v>
       </c>
-      <c r="V43" s="6">
+      <c r="AB43" s="6">
         <v>156118</v>
       </c>
-      <c r="W43" s="6">
+      <c r="AC43" s="6">
         <v>152037</v>
       </c>
-      <c r="X43" s="6">
+      <c r="AD43" s="6">
         <v>147956</v>
       </c>
-      <c r="Y43" s="6">
+      <c r="AE43" s="6">
         <v>143875</v>
       </c>
-      <c r="Z43" s="6">
+      <c r="AF43" s="6">
         <v>139794</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="5">
+        <v>577</v>
+      </c>
+      <c r="C44" s="5">
+        <v>705</v>
+      </c>
+      <c r="D44" s="5">
+        <v>700</v>
+      </c>
+      <c r="E44" s="5">
+        <v>698</v>
+      </c>
+      <c r="F44" s="5">
+        <v>679</v>
+      </c>
+      <c r="G44" s="5">
+        <v>639</v>
+      </c>
+      <c r="H44" s="6">
         <v>633</v>
       </c>
-      <c r="C44" s="6">
+      <c r="I44" s="6">
         <v>619</v>
       </c>
-      <c r="D44" s="6">
+      <c r="J44" s="6">
         <v>608</v>
       </c>
-      <c r="E44" s="6">
+      <c r="K44" s="6">
         <v>593</v>
       </c>
-      <c r="F44" s="6">
+      <c r="L44" s="6">
         <v>615</v>
       </c>
-      <c r="G44" s="6">
+      <c r="M44" s="6">
         <v>598</v>
       </c>
-      <c r="H44" s="6">
+      <c r="N44" s="6">
         <v>572</v>
       </c>
-      <c r="I44" s="6">
+      <c r="O44" s="6">
         <v>591</v>
       </c>
-      <c r="J44" s="6">
+      <c r="P44" s="6">
         <v>575</v>
       </c>
-      <c r="K44" s="6">
+      <c r="Q44" s="6">
         <v>539</v>
       </c>
-      <c r="L44" s="6">
+      <c r="R44" s="6">
         <v>547</v>
       </c>
-      <c r="M44" s="6">
+      <c r="S44" s="6">
         <v>574</v>
       </c>
-      <c r="N44" s="6">
+      <c r="T44" s="6">
         <v>543</v>
       </c>
-      <c r="O44" s="6">
+      <c r="U44" s="6">
         <v>493</v>
       </c>
-      <c r="P44" s="6">
+      <c r="V44" s="6">
         <v>512</v>
       </c>
-      <c r="Q44" s="6">
+      <c r="W44" s="6">
         <v>376</v>
       </c>
-      <c r="R44" s="6">
+      <c r="X44" s="6">
         <v>389</v>
       </c>
-      <c r="S44" s="6">
+      <c r="Y44" s="6">
         <v>330</v>
       </c>
-      <c r="T44" s="6">
+      <c r="Z44" s="6">
         <v>315</v>
       </c>
-      <c r="U44" s="6">
+      <c r="AA44" s="6">
         <v>334</v>
       </c>
-      <c r="V44" s="6">
+      <c r="AB44" s="6">
         <v>351</v>
       </c>
-      <c r="W44" s="6">
+      <c r="AC44" s="6">
         <v>380</v>
       </c>
-      <c r="X44" s="6">
+      <c r="AD44" s="6">
         <v>394</v>
       </c>
-      <c r="Y44" s="6">
+      <c r="AE44" s="6">
         <v>407</v>
       </c>
-      <c r="Z44" s="6">
+      <c r="AF44" s="6">
         <v>433</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="5">
+        <v>143587</v>
+      </c>
+      <c r="C45" s="5">
+        <v>152498</v>
+      </c>
+      <c r="D45" s="5">
+        <v>154124</v>
+      </c>
+      <c r="E45" s="5">
+        <v>143919</v>
+      </c>
+      <c r="F45" s="5">
+        <v>132118</v>
+      </c>
+      <c r="G45" s="5">
+        <v>165846</v>
+      </c>
+      <c r="H45" s="6">
         <v>208449</v>
       </c>
-      <c r="C45" s="6">
+      <c r="I45" s="6">
         <v>224490</v>
       </c>
-      <c r="D45" s="6">
+      <c r="J45" s="6">
         <v>241620</v>
       </c>
-      <c r="E45" s="6">
+      <c r="K45" s="6">
         <v>283835</v>
       </c>
-      <c r="F45" s="6">
+      <c r="L45" s="6">
         <v>314046</v>
       </c>
-      <c r="G45" s="6">
+      <c r="M45" s="6">
         <v>284762</v>
       </c>
-      <c r="H45" s="6">
+      <c r="N45" s="6">
         <v>308312</v>
       </c>
-      <c r="I45" s="6">
+      <c r="O45" s="6">
         <v>316358</v>
       </c>
-      <c r="J45" s="6">
+      <c r="P45" s="6">
         <v>312625</v>
       </c>
-      <c r="K45" s="6">
+      <c r="Q45" s="6">
         <v>337435</v>
       </c>
-      <c r="L45" s="6">
+      <c r="R45" s="6">
         <v>342210</v>
       </c>
-      <c r="M45" s="6">
+      <c r="S45" s="6">
         <v>336762</v>
       </c>
-      <c r="N45" s="6">
+      <c r="T45" s="6">
         <v>324168</v>
       </c>
-      <c r="O45" s="6">
+      <c r="U45" s="6">
         <v>332472</v>
       </c>
-      <c r="P45" s="6">
+      <c r="V45" s="6">
         <v>385518</v>
       </c>
-      <c r="Q45" s="6">
+      <c r="W45" s="6">
         <v>402927</v>
       </c>
-      <c r="R45" s="6">
+      <c r="X45" s="6">
         <v>405330</v>
       </c>
-      <c r="S45" s="6">
+      <c r="Y45" s="6">
         <v>453217</v>
       </c>
-      <c r="T45" s="6">
+      <c r="Z45" s="6">
         <v>440317</v>
       </c>
-      <c r="U45" s="6">
+      <c r="AA45" s="6">
         <v>411621</v>
       </c>
-      <c r="V45" s="6">
+      <c r="AB45" s="6">
         <v>387603</v>
       </c>
-      <c r="W45" s="6">
+      <c r="AC45" s="6">
         <v>378620</v>
       </c>
-      <c r="X45" s="6">
+      <c r="AD45" s="6">
         <v>361933</v>
       </c>
-      <c r="Y45" s="6">
+      <c r="AE45" s="6">
         <v>359513</v>
       </c>
-      <c r="Z45" s="6">
+      <c r="AF45" s="6">
         <v>369424</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="5">
+        <v>29793</v>
+      </c>
+      <c r="C46" s="5">
+        <v>30521</v>
+      </c>
+      <c r="D46" s="5">
+        <v>30894</v>
+      </c>
+      <c r="E46" s="5">
+        <v>30419</v>
+      </c>
+      <c r="F46" s="5">
+        <v>29472</v>
+      </c>
+      <c r="G46" s="5">
+        <v>30483</v>
+      </c>
+      <c r="H46" s="6">
         <v>33456</v>
       </c>
-      <c r="C46" s="6">
+      <c r="I46" s="6">
         <v>29703</v>
       </c>
-      <c r="D46" s="6">
+      <c r="J46" s="6">
         <v>28666</v>
       </c>
-      <c r="E46" s="6">
+      <c r="K46" s="6">
         <v>29398</v>
       </c>
-      <c r="F46" s="6">
+      <c r="L46" s="6">
         <v>31971</v>
       </c>
-      <c r="G46" s="6">
+      <c r="M46" s="6">
         <v>30041</v>
       </c>
-      <c r="H46" s="6">
+      <c r="N46" s="6">
         <v>28523</v>
       </c>
-      <c r="I46" s="6">
+      <c r="O46" s="6">
         <v>28702</v>
       </c>
-      <c r="J46" s="6">
+      <c r="P46" s="6">
         <v>26609</v>
       </c>
-      <c r="K46" s="6">
+      <c r="Q46" s="6">
         <v>25603</v>
       </c>
-      <c r="L46" s="6">
+      <c r="R46" s="6">
         <v>29745</v>
       </c>
-      <c r="M46" s="6">
+      <c r="S46" s="6">
         <v>27190</v>
       </c>
-      <c r="N46" s="6">
+      <c r="T46" s="6">
         <v>28005</v>
       </c>
-      <c r="O46" s="6">
+      <c r="U46" s="6">
         <v>28664</v>
       </c>
-      <c r="P46" s="6">
+      <c r="V46" s="6">
         <v>37936</v>
       </c>
-      <c r="Q46" s="6">
+      <c r="W46" s="6">
         <v>42511</v>
       </c>
-      <c r="R46" s="6">
+      <c r="X46" s="6">
         <v>45465</v>
       </c>
-      <c r="S46" s="6">
+      <c r="Y46" s="6">
         <v>48109</v>
       </c>
-      <c r="T46" s="6">
+      <c r="Z46" s="6">
         <v>52336</v>
       </c>
-      <c r="U46" s="6">
+      <c r="AA46" s="6">
         <v>54356</v>
       </c>
-      <c r="V46" s="6">
+      <c r="AB46" s="6">
         <v>55893</v>
       </c>
-      <c r="W46" s="6">
+      <c r="AC46" s="6">
         <v>58081</v>
       </c>
-      <c r="X46" s="6">
+      <c r="AD46" s="6">
         <v>61669</v>
       </c>
-      <c r="Y46" s="6">
+      <c r="AE46" s="6">
         <v>61712</v>
       </c>
-      <c r="Z46" s="6">
+      <c r="AF46" s="6">
         <v>66661</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="5">
+        <v>87738</v>
+      </c>
+      <c r="C47" s="5">
+        <v>94134</v>
+      </c>
+      <c r="D47" s="5">
+        <v>93408</v>
+      </c>
+      <c r="E47" s="5">
+        <v>93206</v>
+      </c>
+      <c r="F47" s="5">
+        <v>88048</v>
+      </c>
+      <c r="G47" s="5">
+        <v>98459</v>
+      </c>
+      <c r="H47" s="6">
         <v>122549</v>
       </c>
-      <c r="C47" s="6">
+      <c r="I47" s="6">
         <v>120241</v>
       </c>
-      <c r="D47" s="6">
+      <c r="J47" s="6">
         <v>124823</v>
       </c>
-      <c r="E47" s="6">
+      <c r="K47" s="6">
         <v>123564</v>
       </c>
-      <c r="F47" s="6">
+      <c r="L47" s="6">
         <v>110581</v>
       </c>
-      <c r="G47" s="6">
+      <c r="M47" s="6">
         <v>87843</v>
       </c>
-      <c r="H47" s="6">
+      <c r="N47" s="6">
         <v>137257</v>
       </c>
-      <c r="I47" s="6">
+      <c r="O47" s="6">
         <v>133728</v>
       </c>
-      <c r="J47" s="6">
+      <c r="P47" s="6">
         <v>130551</v>
       </c>
-      <c r="K47" s="6">
+      <c r="Q47" s="6">
         <v>126136</v>
       </c>
-      <c r="L47" s="6">
+      <c r="R47" s="6">
         <v>121943</v>
       </c>
-      <c r="M47" s="6">
+      <c r="S47" s="6">
         <v>123514</v>
       </c>
-      <c r="N47" s="6">
+      <c r="T47" s="6">
         <v>137335</v>
       </c>
-      <c r="O47" s="6">
+      <c r="U47" s="6">
         <v>149318</v>
       </c>
-      <c r="P47" s="6">
+      <c r="V47" s="6">
         <v>153274</v>
       </c>
-      <c r="Q47" s="6">
+      <c r="W47" s="6">
         <v>151026</v>
       </c>
-      <c r="R47" s="6">
+      <c r="X47" s="6">
         <v>142669</v>
       </c>
-      <c r="S47" s="6">
+      <c r="Y47" s="6">
         <v>148056</v>
       </c>
-      <c r="T47" s="6">
+      <c r="Z47" s="6">
         <v>145961</v>
       </c>
-      <c r="U47" s="6">
+      <c r="AA47" s="6">
         <v>149227</v>
       </c>
-      <c r="V47" s="6">
+      <c r="AB47" s="6">
         <v>164753</v>
       </c>
-      <c r="W47" s="6">
+      <c r="AC47" s="6">
         <v>159260</v>
       </c>
-      <c r="X47" s="6">
+      <c r="AD47" s="6">
         <v>159817</v>
       </c>
-      <c r="Y47" s="6">
+      <c r="AE47" s="6">
         <v>152840</v>
       </c>
-      <c r="Z47" s="6">
+      <c r="AF47" s="6">
         <v>164996</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
       <c r="H48" s="6" t="s">
         <v>29</v>
       </c>
@@ -4429,420 +5032,480 @@
       <c r="Z48" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE48" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF48" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="6">
         <v>1049254</v>
       </c>
-      <c r="C49" s="6">
+      <c r="I49" s="6">
         <v>1080737</v>
       </c>
-      <c r="D49" s="6">
+      <c r="J49" s="6">
         <v>1123327</v>
       </c>
-      <c r="E49" s="6">
+      <c r="K49" s="6">
         <v>1185676</v>
       </c>
-      <c r="F49" s="6">
+      <c r="L49" s="6">
         <v>1227912</v>
       </c>
-      <c r="G49" s="6">
+      <c r="M49" s="6">
         <v>1185199</v>
       </c>
-      <c r="H49" s="6">
+      <c r="N49" s="6">
         <v>1302325</v>
       </c>
-      <c r="I49" s="6">
+      <c r="O49" s="6">
         <v>1353439</v>
       </c>
-      <c r="J49" s="6">
+      <c r="P49" s="6">
         <v>1374751</v>
       </c>
-      <c r="K49" s="6">
+      <c r="Q49" s="6">
         <v>1430319</v>
       </c>
-      <c r="L49" s="6">
+      <c r="R49" s="6">
         <v>1453260</v>
       </c>
-      <c r="M49" s="6">
+      <c r="S49" s="6">
         <v>1473168</v>
       </c>
-      <c r="N49" s="6">
+      <c r="T49" s="6">
         <v>1510473</v>
       </c>
-      <c r="O49" s="6">
+      <c r="U49" s="6">
         <v>1578514</v>
       </c>
-      <c r="P49" s="6">
+      <c r="V49" s="6">
         <v>1635420</v>
       </c>
-      <c r="Q49" s="6">
+      <c r="W49" s="6">
         <v>1642911</v>
       </c>
-      <c r="R49" s="6">
+      <c r="X49" s="6">
         <v>1669312</v>
       </c>
-      <c r="S49" s="6">
+      <c r="Y49" s="6">
         <v>1708193</v>
       </c>
-      <c r="T49" s="6">
+      <c r="Z49" s="6">
         <v>1694838</v>
       </c>
-      <c r="U49" s="6">
+      <c r="AA49" s="6">
         <v>1741077</v>
       </c>
-      <c r="V49" s="6">
+      <c r="AB49" s="6">
         <v>1776729</v>
       </c>
-      <c r="W49" s="6">
+      <c r="AC49" s="6">
         <v>1737213</v>
       </c>
-      <c r="X49" s="6">
+      <c r="AD49" s="6">
         <v>1755117</v>
       </c>
-      <c r="Y49" s="6">
+      <c r="AE49" s="6">
         <v>1758674</v>
       </c>
-      <c r="Z49" s="6">
+      <c r="AF49" s="6">
         <v>1856330</v>
       </c>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="13"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="13"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="13"/>
-      <c r="T50" s="13"/>
-      <c r="U50" s="13"/>
-      <c r="V50" s="13"/>
-      <c r="W50" s="13"/>
-      <c r="X50" s="13"/>
-      <c r="Y50" s="13"/>
-      <c r="Z50" s="14"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="15"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="15"/>
+      <c r="Z50" s="15"/>
+      <c r="AA50" s="15"/>
+      <c r="AB50" s="15"/>
+      <c r="AC50" s="15"/>
+      <c r="AD50" s="15"/>
+      <c r="AE50" s="15"/>
+      <c r="AF50" s="16"/>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="5">
+        <v>185</v>
+      </c>
+      <c r="C51" s="5">
+        <v>170</v>
+      </c>
+      <c r="D51" s="5">
+        <v>167</v>
+      </c>
+      <c r="E51" s="5">
+        <v>161</v>
+      </c>
+      <c r="F51" s="5">
+        <v>153</v>
+      </c>
+      <c r="G51" s="5">
+        <v>146</v>
+      </c>
+      <c r="H51" s="6">
         <v>22</v>
       </c>
-      <c r="C51" s="6">
+      <c r="I51" s="6">
         <v>20</v>
       </c>
-      <c r="D51" s="6">
+      <c r="J51" s="6">
         <v>19</v>
       </c>
-      <c r="E51" s="6">
+      <c r="K51" s="6">
         <v>21</v>
       </c>
-      <c r="F51" s="6">
+      <c r="L51" s="6">
         <v>21</v>
       </c>
-      <c r="G51" s="6">
+      <c r="M51" s="6">
         <v>20</v>
       </c>
-      <c r="H51" s="6">
+      <c r="N51" s="6">
         <v>19</v>
       </c>
-      <c r="I51" s="6">
+      <c r="O51" s="6">
         <v>18</v>
       </c>
-      <c r="J51" s="6">
+      <c r="P51" s="6">
         <v>17</v>
       </c>
-      <c r="K51" s="6">
+      <c r="Q51" s="6">
         <v>16</v>
       </c>
-      <c r="L51" s="6">
+      <c r="R51" s="6">
         <v>15</v>
       </c>
-      <c r="M51" s="6">
+      <c r="S51" s="6">
         <v>13</v>
       </c>
-      <c r="N51" s="6">
+      <c r="T51" s="6">
         <v>12</v>
       </c>
-      <c r="O51" s="6">
+      <c r="U51" s="6">
         <v>12</v>
       </c>
-      <c r="P51" s="6">
+      <c r="V51" s="6">
         <v>11</v>
       </c>
-      <c r="Q51" s="6">
+      <c r="W51" s="6">
         <v>11</v>
       </c>
-      <c r="R51" s="6">
+      <c r="X51" s="6">
         <v>10</v>
       </c>
-      <c r="S51" s="6">
+      <c r="Y51" s="6">
         <v>10</v>
       </c>
-      <c r="T51" s="6">
+      <c r="Z51" s="6">
         <v>10</v>
       </c>
-      <c r="U51" s="6">
+      <c r="AA51" s="6">
         <v>10</v>
       </c>
-      <c r="V51" s="6">
+      <c r="AB51" s="6">
         <v>9</v>
       </c>
-      <c r="W51" s="6">
+      <c r="AC51" s="6">
         <v>9</v>
       </c>
-      <c r="X51" s="6">
+      <c r="AD51" s="6">
         <v>9</v>
       </c>
-      <c r="Y51" s="6">
+      <c r="AE51" s="6">
         <v>8</v>
       </c>
-      <c r="Z51" s="6">
+      <c r="AF51" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="6">
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="6">
         <v>518</v>
       </c>
-      <c r="C52" s="6">
+      <c r="I52" s="6">
         <v>518</v>
       </c>
-      <c r="D52" s="6">
+      <c r="J52" s="6">
         <v>518</v>
       </c>
-      <c r="E52" s="6">
+      <c r="K52" s="6">
         <v>518</v>
       </c>
-      <c r="F52" s="6">
+      <c r="L52" s="6">
         <v>518</v>
       </c>
-      <c r="G52" s="6">
+      <c r="M52" s="6">
         <v>528</v>
       </c>
-      <c r="H52" s="6">
+      <c r="N52" s="6">
         <v>606</v>
       </c>
-      <c r="I52" s="6">
+      <c r="O52" s="6">
         <v>678</v>
       </c>
-      <c r="J52" s="6">
+      <c r="P52" s="6">
         <v>685</v>
       </c>
-      <c r="K52" s="6">
+      <c r="Q52" s="6">
         <v>61</v>
       </c>
-      <c r="L52" s="6">
+      <c r="R52" s="6">
         <v>60</v>
       </c>
-      <c r="M52" s="6">
+      <c r="S52" s="6">
         <v>54</v>
       </c>
-      <c r="N52" s="6">
+      <c r="T52" s="6">
         <v>60</v>
       </c>
-      <c r="O52" s="6">
+      <c r="U52" s="6">
         <v>61</v>
       </c>
-      <c r="P52" s="6">
+      <c r="V52" s="6">
         <v>62</v>
       </c>
-      <c r="Q52" s="6">
+      <c r="W52" s="6">
         <v>66</v>
       </c>
-      <c r="R52" s="6">
+      <c r="X52" s="6">
         <v>56</v>
       </c>
-      <c r="S52" s="6">
+      <c r="Y52" s="6">
         <v>46</v>
       </c>
-      <c r="T52" s="6">
+      <c r="Z52" s="6">
         <v>54</v>
       </c>
-      <c r="U52" s="6">
+      <c r="AA52" s="6">
         <v>62</v>
       </c>
-      <c r="V52" s="6">
+      <c r="AB52" s="6">
         <v>92</v>
       </c>
-      <c r="W52" s="6">
+      <c r="AC52" s="6">
         <v>78</v>
       </c>
-      <c r="X52" s="6">
+      <c r="AD52" s="6">
         <v>65</v>
       </c>
-      <c r="Y52" s="6">
+      <c r="AE52" s="6">
         <v>62</v>
       </c>
-      <c r="Z52" s="6">
+      <c r="AF52" s="6">
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="6">
+      <c r="B53" s="5">
+        <v>1074</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1040</v>
+      </c>
+      <c r="D53" s="5">
+        <v>1022</v>
+      </c>
+      <c r="E53" s="5">
+        <v>1185</v>
+      </c>
+      <c r="F53" s="5">
+        <v>1181</v>
+      </c>
+      <c r="G53" s="5">
+        <v>1007</v>
+      </c>
+      <c r="H53" s="6">
         <v>879</v>
       </c>
-      <c r="C53" s="6">
+      <c r="I53" s="6">
         <v>1152</v>
       </c>
-      <c r="D53" s="6">
+      <c r="J53" s="6">
         <v>1168</v>
       </c>
-      <c r="E53" s="6">
+      <c r="K53" s="6">
         <v>1148</v>
       </c>
-      <c r="F53" s="6">
+      <c r="L53" s="6">
         <v>1220</v>
       </c>
-      <c r="G53" s="6">
+      <c r="M53" s="6">
         <v>1325</v>
       </c>
-      <c r="H53" s="6">
+      <c r="N53" s="6">
         <v>1065</v>
       </c>
-      <c r="I53" s="6">
+      <c r="O53" s="6">
         <v>1070</v>
       </c>
-      <c r="J53" s="6">
+      <c r="P53" s="6">
         <v>1006</v>
       </c>
-      <c r="K53" s="6">
+      <c r="Q53" s="6">
         <v>1142</v>
       </c>
-      <c r="L53" s="6">
+      <c r="R53" s="6">
         <v>1166</v>
       </c>
-      <c r="M53" s="6">
+      <c r="S53" s="6">
         <v>1157</v>
       </c>
-      <c r="N53" s="6">
+      <c r="T53" s="6">
         <v>1036</v>
       </c>
-      <c r="O53" s="6">
+      <c r="U53" s="6">
         <v>1038</v>
       </c>
-      <c r="P53" s="6">
+      <c r="V53" s="6">
         <v>1062</v>
       </c>
-      <c r="Q53" s="6">
+      <c r="W53" s="6">
         <v>1055</v>
       </c>
-      <c r="R53" s="6">
+      <c r="X53" s="6">
         <v>1027</v>
       </c>
-      <c r="S53" s="6">
+      <c r="Y53" s="6">
         <v>1044</v>
       </c>
-      <c r="T53" s="6">
+      <c r="Z53" s="6">
         <v>1020</v>
       </c>
-      <c r="U53" s="6">
+      <c r="AA53" s="6">
         <v>1053</v>
       </c>
-      <c r="V53" s="6">
+      <c r="AB53" s="6">
         <v>1089</v>
       </c>
-      <c r="W53" s="6">
+      <c r="AC53" s="6">
         <v>1043</v>
       </c>
-      <c r="X53" s="6">
+      <c r="AD53" s="6">
         <v>1043</v>
       </c>
-      <c r="Y53" s="6">
+      <c r="AE53" s="6">
         <v>1000</v>
       </c>
-      <c r="Z53" s="6">
+      <c r="AF53" s="6">
         <v>1036</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="6">
         <v>225</v>
       </c>
-      <c r="C54" s="6">
+      <c r="I54" s="6">
         <v>225</v>
       </c>
-      <c r="D54" s="6">
+      <c r="J54" s="6">
         <v>225</v>
       </c>
-      <c r="E54" s="6">
+      <c r="K54" s="6">
         <v>225</v>
       </c>
-      <c r="F54" s="6">
+      <c r="L54" s="6">
         <v>394</v>
       </c>
-      <c r="G54" s="6">
+      <c r="M54" s="6">
         <v>264</v>
       </c>
-      <c r="H54" s="6">
+      <c r="N54" s="6">
         <v>188</v>
       </c>
-      <c r="I54" s="6">
+      <c r="O54" s="6">
         <v>384</v>
       </c>
-      <c r="J54" s="6">
+      <c r="P54" s="6">
         <v>292</v>
       </c>
-      <c r="K54" s="6">
+      <c r="Q54" s="6">
         <v>73</v>
       </c>
-      <c r="L54" s="6">
+      <c r="R54" s="6">
         <v>73</v>
       </c>
-      <c r="M54" s="6">
+      <c r="S54" s="6">
         <v>118</v>
       </c>
-      <c r="N54" s="6">
+      <c r="T54" s="6">
         <v>163</v>
       </c>
-      <c r="O54" s="6">
+      <c r="U54" s="6">
         <v>204</v>
-      </c>
-      <c r="P54" s="6">
-        <v>246</v>
-      </c>
-      <c r="Q54" s="6">
-        <v>246</v>
-      </c>
-      <c r="R54" s="6">
-        <v>246</v>
-      </c>
-      <c r="S54" s="6">
-        <v>246</v>
-      </c>
-      <c r="T54" s="6">
-        <v>246</v>
-      </c>
-      <c r="U54" s="6">
-        <v>246</v>
       </c>
       <c r="V54" s="6">
         <v>246</v>
@@ -4859,139 +5522,157 @@
       <c r="Z54" s="6">
         <v>246</v>
       </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA54" s="6">
+        <v>246</v>
+      </c>
+      <c r="AB54" s="6">
+        <v>246</v>
+      </c>
+      <c r="AC54" s="6">
+        <v>246</v>
+      </c>
+      <c r="AD54" s="6">
+        <v>246</v>
+      </c>
+      <c r="AE54" s="6">
+        <v>246</v>
+      </c>
+      <c r="AF54" s="6">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="6">
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="6">
         <v>1644</v>
       </c>
-      <c r="C55" s="6">
+      <c r="I55" s="6">
         <v>1915</v>
       </c>
-      <c r="D55" s="6">
+      <c r="J55" s="6">
         <v>1930</v>
       </c>
-      <c r="E55" s="6">
+      <c r="K55" s="6">
         <v>1912</v>
       </c>
-      <c r="F55" s="6">
+      <c r="L55" s="6">
         <v>2152</v>
       </c>
-      <c r="G55" s="6">
+      <c r="M55" s="6">
         <v>2137</v>
       </c>
-      <c r="H55" s="6">
+      <c r="N55" s="6">
         <v>1878</v>
       </c>
-      <c r="I55" s="6">
+      <c r="O55" s="6">
         <v>2151</v>
       </c>
-      <c r="J55" s="6">
+      <c r="P55" s="6">
         <v>2001</v>
       </c>
-      <c r="K55" s="6">
+      <c r="Q55" s="6">
         <v>1291</v>
       </c>
-      <c r="L55" s="6">
+      <c r="R55" s="6">
         <v>1314</v>
       </c>
-      <c r="M55" s="6">
+      <c r="S55" s="6">
         <v>1342</v>
       </c>
-      <c r="N55" s="6">
+      <c r="T55" s="6">
         <v>1270</v>
       </c>
-      <c r="O55" s="6">
+      <c r="U55" s="6">
         <v>1315</v>
       </c>
-      <c r="P55" s="6">
+      <c r="V55" s="6">
         <v>1381</v>
       </c>
-      <c r="Q55" s="6">
+      <c r="W55" s="6">
         <v>1378</v>
       </c>
-      <c r="R55" s="6">
+      <c r="X55" s="6">
         <v>1340</v>
       </c>
-      <c r="S55" s="6">
+      <c r="Y55" s="6">
         <v>1346</v>
       </c>
-      <c r="T55" s="6">
+      <c r="Z55" s="6">
         <v>1330</v>
       </c>
-      <c r="U55" s="6">
+      <c r="AA55" s="6">
         <v>1371</v>
       </c>
-      <c r="V55" s="6">
+      <c r="AB55" s="6">
         <v>1436</v>
       </c>
-      <c r="W55" s="6">
+      <c r="AC55" s="6">
         <v>1376</v>
       </c>
-      <c r="X55" s="6">
+      <c r="AD55" s="6">
         <v>1363</v>
       </c>
-      <c r="Y55" s="6">
+      <c r="AE55" s="6">
         <v>1317</v>
       </c>
-      <c r="Z55" s="6">
+      <c r="AF55" s="6">
         <v>1352</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="13"/>
-      <c r="O56" s="13"/>
-      <c r="P56" s="13"/>
-      <c r="Q56" s="13"/>
-      <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
-      <c r="T56" s="13"/>
-      <c r="U56" s="13"/>
-      <c r="V56" s="13"/>
-      <c r="W56" s="13"/>
-      <c r="X56" s="13"/>
-      <c r="Y56" s="13"/>
-      <c r="Z56" s="14"/>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="15"/>
+      <c r="U56" s="15"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="15"/>
+      <c r="X56" s="15"/>
+      <c r="Y56" s="15"/>
+      <c r="Z56" s="15"/>
+      <c r="AA56" s="15"/>
+      <c r="AB56" s="15"/>
+      <c r="AC56" s="15"/>
+      <c r="AD56" s="15"/>
+      <c r="AE56" s="15"/>
+      <c r="AF56" s="16"/>
+    </row>
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
       <c r="H57" s="6" t="s">
         <v>29</v>
       </c>
@@ -5049,29 +5730,35 @@
       <c r="Z57" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA57" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB57" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC57" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD57" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE57" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF57" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
       <c r="H58" s="6" t="s">
         <v>29</v>
       </c>
@@ -5087,38 +5774,38 @@
       <c r="L58" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M58" s="6">
+      <c r="M58" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N58" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O58" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P58" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q58" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R58" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S58" s="6">
         <v>2</v>
       </c>
-      <c r="N58" s="6">
+      <c r="T58" s="6">
         <v>2</v>
       </c>
-      <c r="O58" s="6">
+      <c r="U58" s="6">
         <v>2</v>
       </c>
-      <c r="P58" s="6">
+      <c r="V58" s="6">
         <v>2</v>
       </c>
-      <c r="Q58" s="6">
+      <c r="W58" s="6">
         <v>2</v>
-      </c>
-      <c r="R58" s="6">
-        <v>1</v>
-      </c>
-      <c r="S58" s="6">
-        <v>1</v>
-      </c>
-      <c r="T58" s="6">
-        <v>1</v>
-      </c>
-      <c r="U58" s="6">
-        <v>1</v>
-      </c>
-      <c r="V58" s="6">
-        <v>1</v>
-      </c>
-      <c r="W58" s="6">
-        <v>1</v>
       </c>
       <c r="X58" s="6">
         <v>1</v>
@@ -5129,29 +5816,35 @@
       <c r="Z58" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA58" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB58" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC58" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD58" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE58" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF58" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
       <c r="H59" s="6" t="s">
         <v>29</v>
       </c>
@@ -5209,33 +5902,39 @@
       <c r="Z59" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA59" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB59" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC59" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD59" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE59" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF59" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="6">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="6">
         <v>31</v>
       </c>
-      <c r="C60" s="6">
-        <v>29</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I60" s="6" t="s">
+      <c r="I60" s="6">
         <v>29</v>
       </c>
       <c r="J60" s="6" t="s">
@@ -5289,29 +5988,35 @@
       <c r="Z60" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA60" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB60" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC60" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD60" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE60" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF60" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
       <c r="H61" s="6" t="s">
         <v>29</v>
       </c>
@@ -5369,29 +6074,35 @@
       <c r="Z61" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA61" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB61" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC61" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD61" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE61" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF61" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
       <c r="H62" s="6" t="s">
         <v>29</v>
       </c>
@@ -5449,189 +6160,223 @@
       <c r="Z62" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA62" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB62" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC62" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD62" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE62" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF62" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="5">
+        <v>19</v>
+      </c>
+      <c r="C63" s="5">
+        <v>20</v>
+      </c>
+      <c r="D63" s="5">
+        <v>15</v>
+      </c>
+      <c r="E63" s="5">
+        <v>17</v>
+      </c>
+      <c r="F63" s="5">
         <v>23</v>
       </c>
-      <c r="C63" s="6">
+      <c r="G63" s="5">
         <v>23</v>
       </c>
-      <c r="D63" s="6">
+      <c r="H63" s="6">
         <v>23</v>
       </c>
-      <c r="E63" s="6">
+      <c r="I63" s="6">
         <v>23</v>
       </c>
-      <c r="F63" s="6">
-        <v>29</v>
-      </c>
-      <c r="G63" s="6">
+      <c r="J63" s="6">
+        <v>23</v>
+      </c>
+      <c r="K63" s="6">
+        <v>23</v>
+      </c>
+      <c r="L63" s="6">
+        <v>29</v>
+      </c>
+      <c r="M63" s="6">
         <v>33</v>
       </c>
-      <c r="H63" s="6">
+      <c r="N63" s="6">
         <v>34</v>
       </c>
-      <c r="I63" s="6">
+      <c r="O63" s="6">
         <v>34</v>
       </c>
-      <c r="J63" s="6">
+      <c r="P63" s="6">
         <v>37</v>
       </c>
-      <c r="K63" s="6">
+      <c r="Q63" s="6">
         <v>131</v>
       </c>
-      <c r="L63" s="6">
+      <c r="R63" s="6">
         <v>60</v>
       </c>
-      <c r="M63" s="6">
+      <c r="S63" s="6">
         <v>130</v>
       </c>
-      <c r="N63" s="6">
+      <c r="T63" s="6">
         <v>72</v>
       </c>
-      <c r="O63" s="6">
+      <c r="U63" s="6">
         <v>94</v>
       </c>
-      <c r="P63" s="6">
+      <c r="V63" s="6">
         <v>123</v>
       </c>
-      <c r="Q63" s="6">
+      <c r="W63" s="6">
         <v>116</v>
       </c>
-      <c r="R63" s="6">
+      <c r="X63" s="6">
         <v>116</v>
       </c>
-      <c r="S63" s="6">
+      <c r="Y63" s="6">
         <v>119</v>
       </c>
-      <c r="T63" s="6">
+      <c r="Z63" s="6">
         <v>107</v>
       </c>
-      <c r="U63" s="6">
+      <c r="AA63" s="6">
         <v>105</v>
       </c>
-      <c r="V63" s="6">
+      <c r="AB63" s="6">
         <v>93</v>
       </c>
-      <c r="W63" s="6">
+      <c r="AC63" s="6">
         <v>96</v>
       </c>
-      <c r="X63" s="6">
+      <c r="AD63" s="6">
         <v>94</v>
       </c>
-      <c r="Y63" s="6">
+      <c r="AE63" s="6">
         <v>95</v>
       </c>
-      <c r="Z63" s="6">
+      <c r="AF63" s="6">
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="6">
         <v>28</v>
       </c>
-      <c r="C64" s="6">
+      <c r="I64" s="6">
         <v>39</v>
       </c>
-      <c r="D64" s="6">
+      <c r="J64" s="6">
         <v>39</v>
       </c>
-      <c r="E64" s="6">
+      <c r="K64" s="6">
         <v>39</v>
       </c>
-      <c r="F64" s="6">
+      <c r="L64" s="6">
         <v>34</v>
       </c>
-      <c r="G64" s="6">
+      <c r="M64" s="6">
         <v>34</v>
       </c>
-      <c r="H64" s="6">
+      <c r="N64" s="6">
         <v>34</v>
       </c>
-      <c r="I64" s="6">
+      <c r="O64" s="6">
         <v>36</v>
       </c>
-      <c r="J64" s="6">
+      <c r="P64" s="6">
         <v>38</v>
       </c>
-      <c r="K64" s="6">
+      <c r="Q64" s="6">
         <v>35</v>
       </c>
-      <c r="L64" s="6">
+      <c r="R64" s="6">
         <v>37</v>
       </c>
-      <c r="M64" s="6">
+      <c r="S64" s="6">
         <v>39</v>
       </c>
-      <c r="N64" s="6">
+      <c r="T64" s="6">
         <v>39</v>
       </c>
-      <c r="O64" s="6">
+      <c r="U64" s="6">
         <v>40</v>
       </c>
-      <c r="P64" s="6">
+      <c r="V64" s="6">
         <v>39</v>
       </c>
-      <c r="Q64" s="6">
+      <c r="W64" s="6">
         <v>40</v>
       </c>
-      <c r="R64" s="6">
+      <c r="X64" s="6">
         <v>42</v>
       </c>
-      <c r="S64" s="6">
+      <c r="Y64" s="6">
         <v>40</v>
       </c>
-      <c r="T64" s="6">
+      <c r="Z64" s="6">
         <v>43</v>
       </c>
-      <c r="U64" s="6">
+      <c r="AA64" s="6">
         <v>46</v>
       </c>
-      <c r="V64" s="6">
+      <c r="AB64" s="6">
         <v>48</v>
       </c>
-      <c r="W64" s="6">
+      <c r="AC64" s="6">
         <v>48</v>
       </c>
-      <c r="X64" s="6">
+      <c r="AD64" s="6">
         <v>48</v>
       </c>
-      <c r="Y64" s="6">
+      <c r="AE64" s="6">
         <v>49</v>
       </c>
-      <c r="Z64" s="6">
+      <c r="AF64" s="6">
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F65" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B65" s="5">
+        <v>6.4</v>
+      </c>
+      <c r="C65" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
       <c r="H65" s="6" t="s">
         <v>29</v>
       </c>
@@ -5689,29 +6434,35 @@
       <c r="Z65" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA65" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB65" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC65" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD65" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE65" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF65" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F66" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
       <c r="H66" s="6" t="s">
         <v>29</v>
       </c>
@@ -5769,29 +6520,35 @@
       <c r="Z66" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA66" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB66" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC66" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD66" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE66" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF66" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
       <c r="H67" s="6" t="s">
         <v>29</v>
       </c>
@@ -5849,299 +6606,341 @@
       <c r="Z67" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA67" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB67" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC67" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD67" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE67" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF67" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="6">
         <v>82</v>
       </c>
-      <c r="C68" s="6">
+      <c r="I68" s="6">
         <v>91</v>
       </c>
-      <c r="D68" s="6">
+      <c r="J68" s="6">
         <v>62</v>
       </c>
-      <c r="E68" s="6">
+      <c r="K68" s="6">
         <v>62</v>
       </c>
-      <c r="F68" s="6">
+      <c r="L68" s="6">
         <v>63</v>
       </c>
-      <c r="G68" s="6">
+      <c r="M68" s="6">
         <v>67</v>
       </c>
-      <c r="H68" s="6">
+      <c r="N68" s="6">
         <v>68</v>
       </c>
-      <c r="I68" s="6">
+      <c r="O68" s="6">
         <v>70</v>
       </c>
-      <c r="J68" s="6">
+      <c r="P68" s="6">
         <v>75</v>
       </c>
-      <c r="K68" s="6">
+      <c r="Q68" s="6">
         <v>166</v>
       </c>
-      <c r="L68" s="6">
+      <c r="R68" s="6">
         <v>97</v>
       </c>
-      <c r="M68" s="6">
+      <c r="S68" s="6">
         <v>171</v>
       </c>
-      <c r="N68" s="6">
+      <c r="T68" s="6">
         <v>113</v>
       </c>
-      <c r="O68" s="6">
+      <c r="U68" s="6">
         <v>135</v>
       </c>
-      <c r="P68" s="6">
+      <c r="V68" s="6">
         <v>163</v>
       </c>
-      <c r="Q68" s="6">
+      <c r="W68" s="6">
         <v>158</v>
       </c>
-      <c r="R68" s="6">
+      <c r="X68" s="6">
         <v>159</v>
       </c>
-      <c r="S68" s="6">
+      <c r="Y68" s="6">
         <v>161</v>
       </c>
-      <c r="T68" s="6">
+      <c r="Z68" s="6">
         <v>152</v>
       </c>
-      <c r="U68" s="6">
+      <c r="AA68" s="6">
         <v>153</v>
       </c>
-      <c r="V68" s="6">
+      <c r="AB68" s="6">
         <v>142</v>
       </c>
-      <c r="W68" s="6">
+      <c r="AC68" s="6">
         <v>145</v>
       </c>
-      <c r="X68" s="6">
+      <c r="AD68" s="6">
         <v>143</v>
       </c>
-      <c r="Y68" s="6">
+      <c r="AE68" s="6">
         <v>145</v>
       </c>
-      <c r="Z68" s="6">
+      <c r="AF68" s="6">
         <v>165</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="13"/>
-      <c r="O69" s="13"/>
-      <c r="P69" s="13"/>
-      <c r="Q69" s="13"/>
-      <c r="R69" s="13"/>
-      <c r="S69" s="13"/>
-      <c r="T69" s="13"/>
-      <c r="U69" s="13"/>
-      <c r="V69" s="13"/>
-      <c r="W69" s="13"/>
-      <c r="X69" s="13"/>
-      <c r="Y69" s="13"/>
-      <c r="Z69" s="14"/>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B69" s="15"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15"/>
+      <c r="S69" s="15"/>
+      <c r="T69" s="15"/>
+      <c r="U69" s="15"/>
+      <c r="V69" s="15"/>
+      <c r="W69" s="15"/>
+      <c r="X69" s="15"/>
+      <c r="Y69" s="15"/>
+      <c r="Z69" s="15"/>
+      <c r="AA69" s="15"/>
+      <c r="AB69" s="15"/>
+      <c r="AC69" s="15"/>
+      <c r="AD69" s="15"/>
+      <c r="AE69" s="15"/>
+      <c r="AF69" s="16"/>
+    </row>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="5">
+        <v>2646</v>
+      </c>
+      <c r="C70" s="5">
+        <v>2862</v>
+      </c>
+      <c r="D70" s="5">
+        <v>2801</v>
+      </c>
+      <c r="E70" s="5">
+        <v>2798</v>
+      </c>
+      <c r="F70" s="5">
+        <v>2885</v>
+      </c>
+      <c r="G70" s="5">
+        <v>2698</v>
+      </c>
+      <c r="H70" s="6">
         <v>3965</v>
       </c>
-      <c r="C70" s="6">
+      <c r="I70" s="6">
         <v>3965</v>
       </c>
-      <c r="D70" s="6">
+      <c r="J70" s="6">
         <v>3938</v>
       </c>
-      <c r="E70" s="6">
+      <c r="K70" s="6">
         <v>3944</v>
       </c>
-      <c r="F70" s="6">
+      <c r="L70" s="6">
         <v>3251</v>
       </c>
-      <c r="G70" s="6">
+      <c r="M70" s="6">
         <v>2805</v>
       </c>
-      <c r="H70" s="6">
+      <c r="N70" s="6">
         <v>2827</v>
       </c>
-      <c r="I70" s="6">
+      <c r="O70" s="6">
         <v>2807</v>
       </c>
-      <c r="J70" s="6">
+      <c r="P70" s="6">
         <v>1907</v>
       </c>
-      <c r="K70" s="6">
+      <c r="Q70" s="6">
         <v>2033</v>
       </c>
-      <c r="L70" s="6">
+      <c r="R70" s="6">
         <v>2125</v>
       </c>
-      <c r="M70" s="6">
+      <c r="S70" s="6">
         <v>2104</v>
       </c>
-      <c r="N70" s="6">
+      <c r="T70" s="6">
         <v>1950</v>
       </c>
-      <c r="O70" s="6">
+      <c r="U70" s="6">
         <v>2050</v>
       </c>
-      <c r="P70" s="6">
+      <c r="V70" s="6">
         <v>2244</v>
       </c>
-      <c r="Q70" s="6">
+      <c r="W70" s="6">
         <v>2312</v>
       </c>
-      <c r="R70" s="6">
+      <c r="X70" s="6">
         <v>2211</v>
       </c>
-      <c r="S70" s="6">
+      <c r="Y70" s="6">
         <v>2524</v>
       </c>
-      <c r="T70" s="6">
+      <c r="Z70" s="6">
         <v>2536</v>
       </c>
-      <c r="U70" s="6">
+      <c r="AA70" s="6">
         <v>2457</v>
       </c>
-      <c r="V70" s="6">
+      <c r="AB70" s="6">
         <v>2261</v>
       </c>
-      <c r="W70" s="6">
+      <c r="AC70" s="6">
         <v>2656</v>
       </c>
-      <c r="X70" s="6">
+      <c r="AD70" s="6">
         <v>2910</v>
       </c>
-      <c r="Y70" s="6">
+      <c r="AE70" s="6">
         <v>2397</v>
       </c>
-      <c r="Z70" s="6">
+      <c r="AF70" s="6">
         <v>2085</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="6">
         <v>1918</v>
       </c>
-      <c r="C71" s="6">
+      <c r="I71" s="6">
         <v>1918</v>
       </c>
-      <c r="D71" s="6">
+      <c r="J71" s="6">
         <v>1918</v>
       </c>
-      <c r="E71" s="6">
+      <c r="K71" s="6">
         <v>2730</v>
       </c>
-      <c r="F71" s="6">
+      <c r="L71" s="6">
         <v>3283</v>
       </c>
-      <c r="G71" s="6">
+      <c r="M71" s="6">
         <v>2736</v>
       </c>
-      <c r="H71" s="6">
+      <c r="N71" s="6">
         <v>3007</v>
       </c>
-      <c r="I71" s="6">
+      <c r="O71" s="6">
         <v>2974</v>
       </c>
-      <c r="J71" s="6">
+      <c r="P71" s="6">
         <v>2922</v>
       </c>
-      <c r="K71" s="6">
+      <c r="Q71" s="6">
         <v>2981</v>
       </c>
-      <c r="L71" s="6">
+      <c r="R71" s="6">
         <v>2829</v>
       </c>
-      <c r="M71" s="6">
+      <c r="S71" s="6">
         <v>2398</v>
       </c>
-      <c r="N71" s="6">
+      <c r="T71" s="6">
         <v>2277</v>
       </c>
-      <c r="O71" s="6">
+      <c r="U71" s="6">
         <v>1929</v>
       </c>
-      <c r="P71" s="6">
+      <c r="V71" s="6">
         <v>2018</v>
       </c>
-      <c r="Q71" s="6">
+      <c r="W71" s="6">
         <v>2339</v>
       </c>
-      <c r="R71" s="6">
+      <c r="X71" s="6">
         <v>2265</v>
       </c>
-      <c r="S71" s="6">
+      <c r="Y71" s="6">
         <v>2367</v>
       </c>
-      <c r="T71" s="6">
+      <c r="Z71" s="6">
         <v>2407</v>
       </c>
-      <c r="U71" s="6">
+      <c r="AA71" s="6">
         <v>2270</v>
       </c>
-      <c r="V71" s="6">
+      <c r="AB71" s="6">
         <v>2564</v>
       </c>
-      <c r="W71" s="6">
+      <c r="AC71" s="6">
         <v>2576</v>
       </c>
-      <c r="X71" s="6">
+      <c r="AD71" s="6">
         <v>3934</v>
       </c>
-      <c r="Y71" s="6">
+      <c r="AE71" s="6">
         <v>3559</v>
       </c>
-      <c r="Z71" s="6">
+      <c r="AF71" s="6">
         <v>3864</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
       <c r="H72" s="6" t="s">
         <v>29</v>
       </c>
@@ -6199,29 +6998,35 @@
       <c r="Z72" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA72" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB72" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC72" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD72" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE72" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF72" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
       <c r="H73" s="6" t="s">
         <v>29</v>
       </c>
@@ -6279,29 +7084,35 @@
       <c r="Z73" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA73" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB73" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC73" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD73" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE73" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF73" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
       <c r="H74" s="6" t="s">
         <v>29</v>
       </c>
@@ -6359,109 +7170,133 @@
       <c r="Z74" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA74" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB74" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC74" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD74" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE74" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF74" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="5">
+        <v>4543</v>
+      </c>
+      <c r="C75" s="5">
+        <v>4881</v>
+      </c>
+      <c r="D75" s="5">
+        <v>4870</v>
+      </c>
+      <c r="E75" s="5">
+        <v>5651</v>
+      </c>
+      <c r="F75" s="5">
+        <v>4505</v>
+      </c>
+      <c r="G75" s="5">
+        <v>4289</v>
+      </c>
+      <c r="H75" s="6">
         <v>3454</v>
       </c>
-      <c r="C75" s="6">
+      <c r="I75" s="6">
         <v>3511</v>
       </c>
-      <c r="D75" s="6">
+      <c r="J75" s="6">
         <v>3008</v>
       </c>
-      <c r="E75" s="6">
+      <c r="K75" s="6">
         <v>3018</v>
       </c>
-      <c r="F75" s="6">
+      <c r="L75" s="6">
         <v>3301</v>
       </c>
-      <c r="G75" s="6">
+      <c r="M75" s="6">
         <v>2946</v>
       </c>
-      <c r="H75" s="6">
+      <c r="N75" s="6">
         <v>3839</v>
       </c>
-      <c r="I75" s="6">
+      <c r="O75" s="6">
         <v>3543</v>
       </c>
-      <c r="J75" s="6">
+      <c r="P75" s="6">
         <v>3919</v>
       </c>
-      <c r="K75" s="6">
+      <c r="Q75" s="6">
         <v>7278</v>
       </c>
-      <c r="L75" s="6">
+      <c r="R75" s="6">
         <v>6606</v>
       </c>
-      <c r="M75" s="6">
+      <c r="S75" s="6">
         <v>6940</v>
       </c>
-      <c r="N75" s="6">
+      <c r="T75" s="6">
         <v>7452</v>
       </c>
-      <c r="O75" s="6">
+      <c r="U75" s="6">
         <v>7401</v>
       </c>
-      <c r="P75" s="6">
+      <c r="V75" s="6">
         <v>7243</v>
       </c>
-      <c r="Q75" s="6">
+      <c r="W75" s="6">
         <v>7596</v>
       </c>
-      <c r="R75" s="6">
+      <c r="X75" s="6">
         <v>7191</v>
       </c>
-      <c r="S75" s="6">
+      <c r="Y75" s="6">
         <v>7278</v>
       </c>
-      <c r="T75" s="6">
+      <c r="Z75" s="6">
         <v>7143</v>
       </c>
-      <c r="U75" s="6">
+      <c r="AA75" s="6">
         <v>7260</v>
       </c>
-      <c r="V75" s="6">
+      <c r="AB75" s="6">
         <v>7071</v>
       </c>
-      <c r="W75" s="6">
+      <c r="AC75" s="6">
         <v>7076</v>
       </c>
-      <c r="X75" s="6">
+      <c r="AD75" s="6">
         <v>7082</v>
       </c>
-      <c r="Y75" s="6">
+      <c r="AE75" s="6">
         <v>7099</v>
       </c>
-      <c r="Z75" s="6">
+      <c r="AF75" s="6">
         <v>7129</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B76" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E76" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F76" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G76" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
       <c r="H76" s="6" t="s">
         <v>29</v>
       </c>
@@ -6519,244 +7354,292 @@
       <c r="Z76" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA76" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB76" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC76" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD76" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE76" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF76" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="5">
+        <v>503</v>
+      </c>
+      <c r="C77" s="5">
+        <v>647</v>
+      </c>
+      <c r="D77" s="5">
+        <v>572</v>
+      </c>
+      <c r="E77" s="5">
+        <v>966</v>
+      </c>
+      <c r="F77" s="5">
+        <v>1650</v>
+      </c>
+      <c r="G77" s="5">
+        <v>2005</v>
+      </c>
+      <c r="H77" s="6">
         <v>2755</v>
       </c>
-      <c r="C77" s="6">
+      <c r="I77" s="6">
         <v>628</v>
       </c>
-      <c r="D77" s="6">
+      <c r="J77" s="6">
         <v>1501</v>
       </c>
-      <c r="E77" s="6">
+      <c r="K77" s="6">
         <v>1420</v>
       </c>
-      <c r="F77" s="6">
+      <c r="L77" s="6">
         <v>765</v>
       </c>
-      <c r="G77" s="6">
+      <c r="M77" s="6">
         <v>2418</v>
       </c>
-      <c r="H77" s="6">
+      <c r="N77" s="6">
         <v>1849</v>
       </c>
-      <c r="I77" s="6">
+      <c r="O77" s="6">
         <v>495</v>
       </c>
-      <c r="J77" s="6">
+      <c r="P77" s="6">
         <v>1191</v>
       </c>
-      <c r="K77" s="6">
+      <c r="Q77" s="6">
         <v>980</v>
       </c>
-      <c r="L77" s="6">
+      <c r="R77" s="6">
         <v>531</v>
       </c>
-      <c r="M77" s="6">
+      <c r="S77" s="6">
         <v>6034</v>
       </c>
-      <c r="N77" s="6">
+      <c r="T77" s="6">
         <v>519</v>
       </c>
-      <c r="O77" s="6">
+      <c r="U77" s="6">
         <v>1280</v>
       </c>
-      <c r="P77" s="6">
+      <c r="V77" s="6">
         <v>1346</v>
       </c>
-      <c r="Q77" s="6">
+      <c r="W77" s="6">
         <v>1948</v>
       </c>
-      <c r="R77" s="6">
+      <c r="X77" s="6">
         <v>2449</v>
       </c>
-      <c r="S77" s="6">
+      <c r="Y77" s="6">
         <v>2645</v>
       </c>
-      <c r="T77" s="6">
+      <c r="Z77" s="6">
         <v>4956</v>
       </c>
-      <c r="U77" s="6">
+      <c r="AA77" s="6">
         <v>7135</v>
       </c>
-      <c r="V77" s="6">
+      <c r="AB77" s="6">
         <v>6934</v>
       </c>
-      <c r="W77" s="6">
+      <c r="AC77" s="6">
         <v>7914</v>
       </c>
-      <c r="X77" s="6">
+      <c r="AD77" s="6">
         <v>4859</v>
       </c>
-      <c r="Y77" s="6">
+      <c r="AE77" s="6">
         <v>8071</v>
       </c>
-      <c r="Z77" s="6">
+      <c r="AF77" s="6">
         <v>7087</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B78" s="6">
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="6">
         <v>12093</v>
       </c>
-      <c r="C78" s="6">
+      <c r="I78" s="6">
         <v>10023</v>
       </c>
-      <c r="D78" s="6">
+      <c r="J78" s="6">
         <v>10365</v>
       </c>
-      <c r="E78" s="6">
+      <c r="K78" s="6">
         <v>11112</v>
       </c>
-      <c r="F78" s="6">
+      <c r="L78" s="6">
         <v>10600</v>
       </c>
-      <c r="G78" s="6">
+      <c r="M78" s="6">
         <v>10904</v>
       </c>
-      <c r="H78" s="6">
+      <c r="N78" s="6">
         <v>11522</v>
       </c>
-      <c r="I78" s="6">
+      <c r="O78" s="6">
         <v>9819</v>
       </c>
-      <c r="J78" s="6">
+      <c r="P78" s="6">
         <v>9939</v>
       </c>
-      <c r="K78" s="6">
+      <c r="Q78" s="6">
         <v>13273</v>
       </c>
-      <c r="L78" s="6">
+      <c r="R78" s="6">
         <v>12091</v>
       </c>
-      <c r="M78" s="6">
+      <c r="S78" s="6">
         <v>17477</v>
       </c>
-      <c r="N78" s="6">
+      <c r="T78" s="6">
         <v>12198</v>
       </c>
-      <c r="O78" s="6">
+      <c r="U78" s="6">
         <v>12661</v>
       </c>
-      <c r="P78" s="6">
+      <c r="V78" s="6">
         <v>12851</v>
       </c>
-      <c r="Q78" s="6">
+      <c r="W78" s="6">
         <v>14195</v>
       </c>
-      <c r="R78" s="6">
+      <c r="X78" s="6">
         <v>14115</v>
       </c>
-      <c r="S78" s="6">
+      <c r="Y78" s="6">
         <v>14814</v>
       </c>
-      <c r="T78" s="6">
+      <c r="Z78" s="6">
         <v>17043</v>
       </c>
-      <c r="U78" s="6">
+      <c r="AA78" s="6">
         <v>19122</v>
       </c>
-      <c r="V78" s="6">
+      <c r="AB78" s="6">
         <v>18831</v>
       </c>
-      <c r="W78" s="6">
+      <c r="AC78" s="6">
         <v>20223</v>
       </c>
-      <c r="X78" s="6">
+      <c r="AD78" s="6">
         <v>18785</v>
       </c>
-      <c r="Y78" s="6">
+      <c r="AE78" s="6">
         <v>21127</v>
       </c>
-      <c r="Z78" s="6">
+      <c r="AF78" s="6">
         <v>20165</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B79" s="6">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="6">
         <v>1922540</v>
       </c>
-      <c r="C79" s="6">
+      <c r="I79" s="6">
         <v>1938392</v>
       </c>
-      <c r="D79" s="6">
+      <c r="J79" s="6">
         <v>1988566</v>
       </c>
-      <c r="E79" s="6">
+      <c r="K79" s="6">
         <v>2106025</v>
       </c>
-      <c r="F79" s="6">
+      <c r="L79" s="6">
         <v>2162399</v>
       </c>
-      <c r="G79" s="6">
+      <c r="M79" s="6">
         <v>2086416</v>
       </c>
-      <c r="H79" s="6">
+      <c r="N79" s="6">
         <v>2258735</v>
       </c>
-      <c r="I79" s="6">
+      <c r="O79" s="6">
         <v>2341259</v>
       </c>
-      <c r="J79" s="6">
+      <c r="P79" s="6">
         <v>2351115</v>
       </c>
-      <c r="K79" s="6">
+      <c r="Q79" s="6">
         <v>2450418</v>
       </c>
-      <c r="L79" s="6">
+      <c r="R79" s="6">
         <v>2506269</v>
       </c>
-      <c r="M79" s="6">
+      <c r="S79" s="6">
         <v>2636979</v>
       </c>
-      <c r="N79" s="6">
+      <c r="T79" s="6">
         <v>2644196</v>
       </c>
-      <c r="O79" s="6">
+      <c r="U79" s="6">
         <v>2687560</v>
       </c>
-      <c r="P79" s="6">
+      <c r="V79" s="6">
         <v>2778624</v>
       </c>
-      <c r="Q79" s="6">
+      <c r="W79" s="6">
         <v>2828817</v>
       </c>
-      <c r="R79" s="6">
+      <c r="X79" s="6">
         <v>2838330</v>
       </c>
-      <c r="S79" s="6">
+      <c r="Y79" s="6">
         <v>2859144</v>
       </c>
-      <c r="T79" s="6">
+      <c r="Z79" s="6">
         <v>2785910</v>
       </c>
-      <c r="U79" s="6">
+      <c r="AA79" s="6">
         <v>2800321</v>
       </c>
-      <c r="V79" s="6">
+      <c r="AB79" s="6">
         <v>2811762</v>
       </c>
-      <c r="W79" s="6">
+      <c r="AC79" s="6">
         <v>2737394</v>
       </c>
-      <c r="X79" s="6">
+      <c r="AD79" s="6">
         <v>2742027</v>
       </c>
-      <c r="Y79" s="6">
+      <c r="AE79" s="6">
         <v>2727432</v>
       </c>
-      <c r="Z79" s="6">
+      <c r="AF79" s="6">
         <v>2852096</v>
       </c>
     </row>
@@ -6804,15 +7687,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A56:Z56"/>
-    <mergeCell ref="A69:Z69"/>
+  <mergeCells count="2">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A7:Z7"/>
-    <mergeCell ref="A9:Z9"/>
-    <mergeCell ref="A29:Z29"/>
-    <mergeCell ref="A35:Z35"/>
-    <mergeCell ref="A50:Z50"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
